--- a/data/trans_orig/P36B11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18749599-10A4-4995-BDB9-30F88757245F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFCAB067-7784-44D2-B2A6-70B10FD42C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1025489F-425E-49E0-83F3-DBEC5D53D616}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{595B64EB-B036-436F-88B7-0C7A19060FD4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="797">
-  <si>
-    <t>Población según la frecuencia de consumición de pescado en 2007 (Tasa respuesta: 99,95%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="796">
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -76,2359 +76,2356 @@
     <t>2,67%</t>
   </si>
   <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2015 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de pescado en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
   </si>
   <si>
     <t>58,86%</t>
   </si>
   <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de pescado en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
     <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
   </si>
 </sst>
 </file>
@@ -2840,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AE4C90-C295-4A5A-A424-27DE6F8ED83F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C459487-2983-48DA-98ED-A440E2BFC4F2}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3338,13 +3335,13 @@
         <v>59448</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>136</v>
@@ -3353,13 +3350,13 @@
         <v>143151</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3371,13 @@
         <v>368414</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>330</v>
@@ -3389,13 +3386,13 @@
         <v>349039</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>684</v>
@@ -3404,13 +3401,13 @@
         <v>717453</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3422,13 @@
         <v>250460</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -3440,13 +3437,13 @@
         <v>176606</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>404</v>
@@ -3455,13 +3452,13 @@
         <v>427065</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3473,13 @@
         <v>14465</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3491,13 +3488,13 @@
         <v>16724</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -3610,13 +3607,13 @@
         <v>20381</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3628,13 @@
         <v>54846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -3646,13 +3643,13 @@
         <v>39813</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -3661,13 +3658,13 @@
         <v>94659</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3679,13 @@
         <v>328575</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>378</v>
@@ -3697,13 +3694,13 @@
         <v>394177</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>689</v>
@@ -3712,13 +3709,13 @@
         <v>722752</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3730,13 @@
         <v>234919</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>214</v>
@@ -3748,13 +3745,13 @@
         <v>227142</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>441</v>
@@ -3763,10 +3760,10 @@
         <v>462060</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>141</v>
@@ -3787,10 +3784,10 @@
         <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -3799,13 +3796,13 @@
         <v>15702</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -3814,13 +3811,13 @@
         <v>28560</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,7 +3873,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3888,13 +3885,13 @@
         <v>8269</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3903,13 +3900,13 @@
         <v>4545</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3918,13 +3915,13 @@
         <v>12813</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3936,13 @@
         <v>40179</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -3954,13 +3951,13 @@
         <v>27004</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -3969,13 +3966,13 @@
         <v>67183</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3987,13 @@
         <v>247898</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>294</v>
@@ -4005,13 +4002,13 @@
         <v>298746</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>523</v>
@@ -4020,13 +4017,13 @@
         <v>546644</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4038,13 @@
         <v>216917</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>166</v>
@@ -4056,13 +4053,13 @@
         <v>172124</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>368</v>
@@ -4071,13 +4068,13 @@
         <v>389041</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4089,13 @@
         <v>5884</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4110,10 +4107,10 @@
         <v>54</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -4122,13 +4119,13 @@
         <v>19107</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,7 +4181,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4196,13 +4193,13 @@
         <v>2891</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4211,13 +4208,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4226,13 +4223,13 @@
         <v>2891</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4244,13 @@
         <v>19905</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -4262,13 +4259,13 @@
         <v>22377</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>41</v>
@@ -4277,13 +4274,13 @@
         <v>42282</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4295,13 @@
         <v>180938</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>208</v>
@@ -4313,13 +4310,13 @@
         <v>211510</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>390</v>
@@ -4328,13 +4325,13 @@
         <v>392448</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>39</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4346,13 @@
         <v>164126</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>152</v>
@@ -4364,13 +4361,13 @@
         <v>154874</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>321</v>
@@ -4379,13 +4376,13 @@
         <v>319000</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4397,13 @@
         <v>18850</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>15</v>
@@ -4415,13 +4412,13 @@
         <v>15225</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>33</v>
@@ -4430,13 +4427,13 @@
         <v>34075</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,7 +4489,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4504,13 +4501,13 @@
         <v>1661</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -4519,13 +4516,13 @@
         <v>7074</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -4534,13 +4531,13 @@
         <v>8736</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4552,13 @@
         <v>26044</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>40</v>
@@ -4570,13 +4567,13 @@
         <v>39013</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>69</v>
@@ -4585,13 +4582,13 @@
         <v>65056</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4603,13 @@
         <v>253956</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>333</v>
@@ -4624,10 +4621,10 @@
         <v>34</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>595</v>
@@ -4636,13 +4633,13 @@
         <v>596214</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4654,13 @@
         <v>206637</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>270</v>
@@ -4672,13 +4669,13 @@
         <v>277656</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>486</v>
@@ -4687,13 +4684,13 @@
         <v>484293</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4705,13 @@
         <v>13300</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -4723,13 +4720,13 @@
         <v>10840</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>269</v>
+        <v>101</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>23</v>
@@ -4738,13 +4735,13 @@
         <v>24141</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>274</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4809,13 @@
         <v>51911</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H40" s="7">
         <v>58</v>
@@ -4827,13 +4824,13 @@
         <v>60318</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>278</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="M40" s="7">
         <v>109</v>
@@ -4842,13 +4839,13 @@
         <v>112229</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4860,13 @@
         <v>286178</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H41" s="7">
         <v>239</v>
@@ -4878,13 +4875,13 @@
         <v>245620</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M41" s="7">
         <v>525</v>
@@ -4893,13 +4890,13 @@
         <v>531798</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4911,13 @@
         <v>1627987</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>291</v>
+        <v>125</v>
       </c>
       <c r="H42" s="7">
         <v>1789</v>
@@ -4929,28 +4926,28 @@
         <v>1831585</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M42" s="7">
         <v>3379</v>
       </c>
       <c r="N42" s="7">
-        <v>3459572</v>
+        <v>3459571</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4962,13 @@
         <v>1233830</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H43" s="7">
         <v>1127</v>
@@ -4980,28 +4977,28 @@
         <v>1155948</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M43" s="7">
         <v>2338</v>
       </c>
       <c r="N43" s="7">
-        <v>2389779</v>
+        <v>2389778</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5013,13 @@
         <v>75769</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>188</v>
+        <v>309</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H44" s="7">
         <v>82</v>
@@ -5031,13 +5028,13 @@
         <v>83673</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M44" s="7">
         <v>157</v>
@@ -5046,13 +5043,13 @@
         <v>159442</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,7 +5091,7 @@
         <v>6508</v>
       </c>
       <c r="N45" s="7">
-        <v>6652819</v>
+        <v>6652818</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -5108,7 +5105,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5130,7 +5127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E61404-F82A-44C6-936D-A564458F43F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93B20C6-6017-4265-ADB2-F98C691DDD58}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5147,7 +5144,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5254,13 +5251,13 @@
         <v>10864</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -5269,13 +5266,13 @@
         <v>16274</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -5284,13 +5281,13 @@
         <v>27137</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,13 +5302,13 @@
         <v>64910</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -5320,13 +5317,13 @@
         <v>35200</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>99</v>
@@ -5335,13 +5332,13 @@
         <v>100110</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5353,13 @@
         <v>241070</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H6" s="7">
         <v>228</v>
@@ -5371,13 +5368,13 @@
         <v>233609</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M6" s="7">
         <v>466</v>
@@ -5386,13 +5383,13 @@
         <v>474679</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,13 +5404,13 @@
         <v>120536</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
@@ -5422,13 +5419,13 @@
         <v>136122</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>250</v>
@@ -5437,13 +5434,13 @@
         <v>256658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5455,13 @@
         <v>15779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>277</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5473,13 +5470,13 @@
         <v>8127</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -5488,13 +5485,13 @@
         <v>23906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5559,13 @@
         <v>10108</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -5577,13 +5574,13 @@
         <v>10159</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5592,13 +5589,13 @@
         <v>20268</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5610,13 @@
         <v>69700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
@@ -5628,13 +5625,13 @@
         <v>48378</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="M11" s="7">
         <v>112</v>
@@ -5643,13 +5640,13 @@
         <v>118078</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5661,13 @@
         <v>370217</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="H12" s="7">
         <v>304</v>
@@ -5679,13 +5676,13 @@
         <v>325378</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="M12" s="7">
         <v>671</v>
@@ -5694,13 +5691,13 @@
         <v>695594</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5712,13 @@
         <v>220404</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -5730,13 +5727,13 @@
         <v>208741</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>403</v>
@@ -5745,13 +5742,13 @@
         <v>429145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5763,13 @@
         <v>16658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -5781,13 +5778,13 @@
         <v>17598</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -5796,13 +5793,13 @@
         <v>34257</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5867,13 @@
         <v>12139</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5885,13 +5882,13 @@
         <v>6937</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5900,13 +5897,13 @@
         <v>19077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5918,13 @@
         <v>68441</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -5936,13 +5933,13 @@
         <v>58473</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -5951,13 +5948,13 @@
         <v>126914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +5969,13 @@
         <v>336093</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="H18" s="7">
         <v>349</v>
@@ -5987,13 +5984,13 @@
         <v>367932</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>412</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>294</v>
+        <v>417</v>
       </c>
       <c r="M18" s="7">
         <v>674</v>
@@ -6002,13 +5999,13 @@
         <v>704025</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6020,13 @@
         <v>250443</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="H19" s="7">
         <v>235</v>
@@ -6038,13 +6035,13 @@
         <v>254516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M19" s="7">
         <v>473</v>
@@ -6053,13 +6050,13 @@
         <v>504959</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>422</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6071,13 @@
         <v>13783</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>199</v>
+        <v>430</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -6089,13 +6086,13 @@
         <v>20970</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>309</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>13</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -6104,13 +6101,13 @@
         <v>34753</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,7 +6163,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6178,13 +6175,13 @@
         <v>8880</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -6193,13 +6190,13 @@
         <v>6652</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>236</v>
+        <v>439</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6208,13 +6205,13 @@
         <v>15532</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>319</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6226,13 @@
         <v>49608</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -6244,13 +6241,13 @@
         <v>38734</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -6259,13 +6256,13 @@
         <v>88342</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6277,13 @@
         <v>314157</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="H24" s="7">
         <v>281</v>
@@ -6295,13 +6292,13 @@
         <v>322639</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M24" s="7">
         <v>562</v>
@@ -6310,13 +6307,13 @@
         <v>636796</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6328,13 @@
         <v>213046</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="H25" s="7">
         <v>204</v>
@@ -6346,13 +6343,13 @@
         <v>234260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>458</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7">
         <v>394</v>
@@ -6361,13 +6358,13 @@
         <v>447306</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6379,13 @@
         <v>26855</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -6397,13 +6394,13 @@
         <v>12904</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -6412,13 +6409,13 @@
         <v>39758</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>468</v>
+        <v>57</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,7 +6471,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6486,13 +6483,13 @@
         <v>7094</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>470</v>
+        <v>152</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6501,13 +6498,13 @@
         <v>2971</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>385</v>
+        <v>475</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -6516,13 +6513,13 @@
         <v>10065</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>234</v>
+        <v>476</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>473</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>474</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +6534,13 @@
         <v>32143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -6552,13 +6549,13 @@
         <v>27847</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M29" s="7">
         <v>54</v>
@@ -6567,13 +6564,13 @@
         <v>59990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>484</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +6585,13 @@
         <v>223963</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H30" s="7">
         <v>203</v>
@@ -6603,13 +6600,13 @@
         <v>222477</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M30" s="7">
         <v>403</v>
@@ -6618,10 +6615,10 @@
         <v>446440</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>491</v>
@@ -6639,13 +6636,13 @@
         <v>155417</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H31" s="7">
         <v>166</v>
@@ -6654,13 +6651,13 @@
         <v>182047</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M31" s="7">
         <v>312</v>
@@ -6669,13 +6666,13 @@
         <v>337464</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,13 +6687,13 @@
         <v>9764</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>184</v>
+        <v>503</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -6705,13 +6702,13 @@
         <v>12458</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -6720,13 +6717,13 @@
         <v>22222</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>104</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6782,7 +6779,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6794,13 +6791,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>506</v>
+        <v>439</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -6809,13 +6806,13 @@
         <v>3053</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>507</v>
+        <v>187</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -6824,13 +6821,13 @@
         <v>3053</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>511</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,13 +6842,13 @@
         <v>42038</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H35" s="7">
         <v>48</v>
@@ -6860,13 +6857,13 @@
         <v>51535</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>123</v>
+        <v>518</v>
       </c>
       <c r="M35" s="7">
         <v>86</v>
@@ -6875,13 +6872,13 @@
         <v>93574</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>517</v>
+        <v>207</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>519</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,7 +6911,7 @@
         <v>523</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>524</v>
@@ -6929,10 +6926,10 @@
         <v>525</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>333</v>
+        <v>526</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,13 +6944,13 @@
         <v>209518</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>180</v>
+        <v>527</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H37" s="7">
         <v>258</v>
@@ -6962,13 +6959,13 @@
         <v>274690</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>532</v>
       </c>
       <c r="M37" s="7">
         <v>443</v>
@@ -6977,13 +6974,13 @@
         <v>484208</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,13 +6995,13 @@
         <v>11238</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>350</v>
+        <v>52</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>534</v>
+        <v>229</v>
       </c>
       <c r="H38" s="7">
         <v>25</v>
@@ -7013,13 +7010,13 @@
         <v>28907</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>54</v>
+        <v>537</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M38" s="7">
         <v>35</v>
@@ -7028,13 +7025,13 @@
         <v>40145</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>538</v>
+        <v>69</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7102,13 +7099,13 @@
         <v>49085</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>240</v>
+        <v>541</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>541</v>
+        <v>428</v>
       </c>
       <c r="H40" s="7">
         <v>44</v>
@@ -7117,13 +7114,13 @@
         <v>46047</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M40" s="7">
         <v>88</v>
@@ -7132,13 +7129,13 @@
         <v>95132</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>397</v>
+        <v>278</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>544</v>
+        <v>98</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7153,13 +7150,13 @@
         <v>326841</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>548</v>
+        <v>410</v>
       </c>
       <c r="H41" s="7">
         <v>243</v>
@@ -7168,13 +7165,13 @@
         <v>260167</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>163</v>
+        <v>547</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M41" s="7">
         <v>549</v>
@@ -7183,13 +7180,13 @@
         <v>587007</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,13 +7201,13 @@
         <v>1780291</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>555</v>
+        <v>339</v>
       </c>
       <c r="H42" s="7">
         <v>1721</v>
@@ -7219,10 +7216,10 @@
         <v>1851828</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>37</v>
+        <v>554</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>555</v>
@@ -7234,13 +7231,13 @@
         <v>3632119</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,13 +7252,13 @@
         <v>1169364</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H43" s="7">
         <v>1190</v>
@@ -7276,7 +7273,7 @@
         <v>563</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>564</v>
+        <v>462</v>
       </c>
       <c r="M43" s="7">
         <v>2275</v>
@@ -7285,13 +7282,13 @@
         <v>2459740</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,13 +7303,13 @@
         <v>94077</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="H44" s="7">
         <v>92</v>
@@ -7321,13 +7318,13 @@
         <v>100964</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="M44" s="7">
         <v>179</v>
@@ -7336,13 +7333,13 @@
         <v>195041</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>271</v>
+        <v>361</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,7 +7395,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -7420,7 +7417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F7B854-7AD4-48FD-8391-32363CC59326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E71A02-F2C7-4494-98F8-9E57F341DE4A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7437,7 +7434,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7544,13 +7541,13 @@
         <v>12893</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>104</v>
+        <v>542</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -7559,13 +7556,13 @@
         <v>9343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>276</v>
+        <v>576</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -7574,13 +7571,13 @@
         <v>22236</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>581</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>582</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,13 +7592,13 @@
         <v>51765</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H5" s="7">
         <v>57</v>
@@ -7610,13 +7607,13 @@
         <v>56233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="M5" s="7">
         <v>105</v>
@@ -7625,13 +7622,13 @@
         <v>107999</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>586</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +7643,13 @@
         <v>241295</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>592</v>
+        <v>294</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H6" s="7">
         <v>243</v>
@@ -7661,13 +7658,13 @@
         <v>236472</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="M6" s="7">
         <v>470</v>
@@ -7676,13 +7673,13 @@
         <v>477766</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7694,13 @@
         <v>107923</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -7712,13 +7709,13 @@
         <v>86897</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -7727,13 +7724,13 @@
         <v>194820</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7745,13 @@
         <v>4501</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>606</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -7763,13 +7760,13 @@
         <v>5725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -7778,13 +7775,13 @@
         <v>10226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>273</v>
+        <v>608</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>609</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,13 +7849,13 @@
         <v>14406</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>612</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>613</v>
+        <v>504</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -7867,13 +7864,13 @@
         <v>16872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>611</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>612</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -7882,13 +7879,13 @@
         <v>31278</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>614</v>
+        <v>468</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>391</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>535</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7900,13 @@
         <v>60752</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>616</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -7918,13 +7915,13 @@
         <v>60565</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>618</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>615</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="M11" s="7">
         <v>119</v>
@@ -7933,13 +7930,13 @@
         <v>121318</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7951,13 @@
         <v>340841</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H12" s="7">
         <v>358</v>
@@ -7969,13 +7966,13 @@
         <v>343814</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M12" s="7">
         <v>687</v>
@@ -7984,13 +7981,13 @@
         <v>684655</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +8002,13 @@
         <v>165809</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>633</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -8020,13 +8017,13 @@
         <v>130736</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -8035,13 +8032,13 @@
         <v>296545</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8053,13 @@
         <v>7671</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>542</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>504</v>
+        <v>606</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -8071,13 +8068,13 @@
         <v>7768</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>641</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -8086,13 +8083,13 @@
         <v>15440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>638</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>569</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8157,13 @@
         <v>8985</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>645</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>647</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -8175,13 +8172,13 @@
         <v>10199</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>639</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -8190,13 +8187,13 @@
         <v>19184</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>644</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>474</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,13 +8208,13 @@
         <v>64996</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -8226,13 +8223,13 @@
         <v>55144</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>654</v>
+        <v>166</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>548</v>
+        <v>649</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -8241,13 +8238,13 @@
         <v>120140</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,28 +8259,28 @@
         <v>432963</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="H18" s="7">
         <v>388</v>
       </c>
       <c r="I18" s="7">
-        <v>383233</v>
+        <v>383234</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="M18" s="7">
         <v>798</v>
@@ -8292,13 +8289,13 @@
         <v>816196</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8310,13 @@
         <v>151582</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H19" s="7">
         <v>201</v>
@@ -8328,13 +8325,13 @@
         <v>201668</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>380</v>
+        <v>665</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>97</v>
+        <v>667</v>
       </c>
       <c r="M19" s="7">
         <v>348</v>
@@ -8343,13 +8340,13 @@
         <v>353250</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8361,13 @@
         <v>6956</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>507</v>
+        <v>187</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -8379,13 +8376,13 @@
         <v>10031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>675</v>
+        <v>11</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -8394,13 +8391,13 @@
         <v>16987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>676</v>
+        <v>639</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8427,7 +8424,7 @@
         <v>664</v>
       </c>
       <c r="I21" s="7">
-        <v>660275</v>
+        <v>660276</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -8456,7 +8453,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8468,13 +8465,13 @@
         <v>6957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>678</v>
+        <v>57</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -8483,13 +8480,13 @@
         <v>8893</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>397</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>679</v>
+        <v>440</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>680</v>
+        <v>643</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -8498,13 +8495,13 @@
         <v>15851</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>642</v>
+        <v>474</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>192</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8519,13 +8516,13 @@
         <v>64926</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>225</v>
+        <v>676</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>402</v>
+        <v>677</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -8534,13 +8531,13 @@
         <v>49331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>684</v>
+        <v>538</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="M23" s="7">
         <v>99</v>
@@ -8549,13 +8546,13 @@
         <v>114256</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>548</v>
+        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,13 +8567,13 @@
         <v>388532</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="H24" s="7">
         <v>353</v>
@@ -8585,13 +8582,13 @@
         <v>374993</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>332</v>
+        <v>685</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="M24" s="7">
         <v>711</v>
@@ -8600,13 +8597,13 @@
         <v>763525</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8618,13 @@
         <v>175316</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="H25" s="7">
         <v>182</v>
@@ -8636,13 +8633,13 @@
         <v>198571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>700</v>
+        <v>463</v>
       </c>
       <c r="M25" s="7">
         <v>336</v>
@@ -8651,13 +8648,13 @@
         <v>373888</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>96</v>
+        <v>695</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8669,13 @@
         <v>9229</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>703</v>
+        <v>641</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>704</v>
+        <v>611</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -8687,13 +8684,13 @@
         <v>16176</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>705</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -8702,13 +8699,13 @@
         <v>25405</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>681</v>
+        <v>274</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>708</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8764,7 +8761,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8776,13 +8773,13 @@
         <v>1175</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>360</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8791,13 +8788,13 @@
         <v>6658</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>278</v>
+        <v>638</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>580</v>
+        <v>702</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -8806,13 +8803,13 @@
         <v>7834</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>239</v>
+        <v>704</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,13 +8824,13 @@
         <v>42010</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>712</v>
+        <v>618</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="H29" s="7">
         <v>37</v>
@@ -8842,13 +8839,13 @@
         <v>43533</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -8857,13 +8854,13 @@
         <v>85543</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>519</v>
+        <v>711</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>438</v>
+        <v>713</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,13 +8875,13 @@
         <v>288646</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="H30" s="7">
         <v>264</v>
@@ -8893,13 +8890,13 @@
         <v>303520</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="M30" s="7">
         <v>525</v>
@@ -8908,13 +8905,13 @@
         <v>592166</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>726</v>
+        <v>522</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,13 +8926,13 @@
         <v>139557</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>722</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="H31" s="7">
         <v>117</v>
@@ -8944,13 +8941,13 @@
         <v>133198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>730</v>
+        <v>604</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="M31" s="7">
         <v>237</v>
@@ -8959,13 +8956,13 @@
         <v>272755</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>340</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,13 +8977,13 @@
         <v>6530</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>397</v>
+        <v>278</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>17</v>
+        <v>361</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -8995,13 +8992,13 @@
         <v>9940</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>111</v>
+        <v>731</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -9010,13 +9007,13 @@
         <v>16469</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>580</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9072,7 +9069,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9084,13 +9081,13 @@
         <v>9340</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>738</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -9099,13 +9096,13 @@
         <v>2470</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>740</v>
+        <v>605</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>741</v>
+        <v>143</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
@@ -9114,13 +9111,13 @@
         <v>11810</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>270</v>
+        <v>735</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>674</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9135,13 +9132,13 @@
         <v>43832</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>247</v>
+        <v>738</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="H35" s="7">
         <v>37</v>
@@ -9150,13 +9147,13 @@
         <v>40553</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>392</v>
+        <v>741</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>746</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>83</v>
@@ -9165,13 +9162,13 @@
         <v>84385</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>164</v>
+        <v>743</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>512</v>
+        <v>744</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9186,13 +9183,13 @@
         <v>362575</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>749</v>
+        <v>336</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="H36" s="7">
         <v>405</v>
@@ -9201,13 +9198,13 @@
         <v>479653</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>625</v>
+        <v>747</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="M36" s="7">
         <v>793</v>
@@ -9216,13 +9213,13 @@
         <v>842228</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9237,13 +9234,13 @@
         <v>168455</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H37" s="7">
         <v>200</v>
@@ -9252,13 +9249,13 @@
         <v>242014</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="M37" s="7">
         <v>376</v>
@@ -9267,13 +9264,13 @@
         <v>410469</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9288,13 +9285,13 @@
         <v>5245</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>765</v>
+        <v>644</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>538</v>
+        <v>312</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -9303,13 +9300,13 @@
         <v>13241</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>581</v>
+        <v>763</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>738</v>
+        <v>114</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>307</v>
+        <v>99</v>
       </c>
       <c r="M38" s="7">
         <v>16</v>
@@ -9318,13 +9315,13 @@
         <v>18485</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>645</v>
+        <v>269</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9392,13 +9389,13 @@
         <v>53757</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>465</v>
+        <v>275</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="H40" s="7">
         <v>52</v>
@@ -9407,13 +9404,13 @@
         <v>54436</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>769</v>
+        <v>476</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>735</v>
+        <v>428</v>
       </c>
       <c r="M40" s="7">
         <v>103</v>
@@ -9422,13 +9419,13 @@
         <v>108193</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>433</v>
+        <v>766</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>110</v>
+        <v>767</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9443,13 +9440,13 @@
         <v>328281</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>770</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H41" s="7">
         <v>291</v>
@@ -9458,10 +9455,10 @@
         <v>305359</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>772</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>773</v>
@@ -9545,13 +9542,13 @@
         <v>908642</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>787</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H43" s="7">
         <v>918</v>
@@ -9563,10 +9560,10 @@
         <v>788</v>
       </c>
       <c r="K43" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>789</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>790</v>
       </c>
       <c r="M43" s="7">
         <v>1776</v>
@@ -9575,13 +9572,13 @@
         <v>1901728</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>792</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9596,13 +9593,13 @@
         <v>40131</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>738</v>
-      </c>
       <c r="G44" s="7" t="s">
-        <v>269</v>
+        <v>763</v>
       </c>
       <c r="H44" s="7">
         <v>59</v>
@@ -9611,13 +9608,13 @@
         <v>62881</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>397</v>
+        <v>281</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>468</v>
+        <v>145</v>
       </c>
       <c r="M44" s="7">
         <v>94</v>
@@ -9629,10 +9626,10 @@
         <v>795</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>796</v>
+        <v>674</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9688,7 +9685,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFCAB067-7784-44D2-B2A6-70B10FD42C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB847838-E4AD-4108-AC33-E6B58126552C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{595B64EB-B036-436F-88B7-0C7A19060FD4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9AFEE0C5-7DFD-4F85-957E-E23CE6735432}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="794">
   <si>
     <t>Población según la frecuencia de consumo de pescado en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -79,25 +79,25 @@
     <t>1,4%</t>
   </si>
   <si>
-    <t>4,66%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -106,2326 +106,2320 @@
     <t>12,45%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pescado en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
   </si>
   <si>
     <t>26,84%</t>
   </si>
   <si>
-    <t>23,37%</t>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>1,61%</t>
   </si>
   <si>
     <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
 </sst>
 </file>
@@ -2837,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C459487-2983-48DA-98ED-A440E2BFC4F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9306CE49-9B7A-49EB-BBAC-60D73A84033F}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3275,7 +3269,7 @@
         <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3284,13 +3278,13 @@
         <v>22683</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -3299,13 +3293,13 @@
         <v>41129</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3314,13 @@
         <v>83703</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>54</v>
@@ -3335,7 +3329,7 @@
         <v>59448</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>74</v>
@@ -3458,7 +3452,7 @@
         <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3467,13 @@
         <v>14465</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3488,13 +3482,13 @@
         <v>16724</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -3503,13 +3497,13 @@
         <v>31189</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,7 +3559,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3577,13 +3571,13 @@
         <v>7471</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3592,13 +3586,13 @@
         <v>12910</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3607,13 +3601,13 @@
         <v>20381</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3622,13 @@
         <v>54846</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -3643,13 +3637,13 @@
         <v>39813</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -3658,13 +3652,13 @@
         <v>94659</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3673,13 @@
         <v>328575</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>378</v>
@@ -3694,13 +3688,13 @@
         <v>394177</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>689</v>
@@ -3709,13 +3703,13 @@
         <v>722752</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3724,13 @@
         <v>234919</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>214</v>
@@ -3745,13 +3739,13 @@
         <v>227142</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>441</v>
@@ -3760,13 +3754,13 @@
         <v>462060</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3775,13 @@
         <v>12858</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -3796,13 +3790,13 @@
         <v>15702</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -3811,13 +3805,13 @@
         <v>28560</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,7 +3867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3885,13 +3879,13 @@
         <v>8269</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3900,13 +3894,13 @@
         <v>4545</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3915,13 +3909,13 @@
         <v>12813</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3930,13 @@
         <v>40179</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -3951,13 +3945,13 @@
         <v>27004</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -3966,13 +3960,13 @@
         <v>67183</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3981,13 @@
         <v>247898</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>294</v>
@@ -4002,13 +3996,13 @@
         <v>298746</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>523</v>
@@ -4017,13 +4011,13 @@
         <v>546644</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4032,13 @@
         <v>216917</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>166</v>
@@ -4053,13 +4047,13 @@
         <v>172124</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>368</v>
@@ -4068,13 +4062,13 @@
         <v>389041</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4083,13 @@
         <v>5884</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4107,10 +4101,10 @@
         <v>54</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -4125,7 +4119,7 @@
         <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,7 +4175,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4193,13 +4187,13 @@
         <v>2891</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4208,13 +4202,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4223,13 +4217,13 @@
         <v>2891</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4238,13 @@
         <v>19905</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -4259,13 +4253,13 @@
         <v>22377</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>41</v>
@@ -4274,13 +4268,13 @@
         <v>42282</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4289,13 @@
         <v>180938</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>208</v>
@@ -4310,13 +4304,13 @@
         <v>211510</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>390</v>
@@ -4325,13 +4319,13 @@
         <v>392448</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4340,13 @@
         <v>164126</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>152</v>
@@ -4361,13 +4355,13 @@
         <v>154874</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>321</v>
@@ -4376,13 +4370,13 @@
         <v>319000</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4391,13 @@
         <v>18850</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>15</v>
@@ -4412,13 +4406,13 @@
         <v>15225</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>33</v>
@@ -4427,13 +4421,13 @@
         <v>34075</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,7 +4483,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4501,13 +4495,13 @@
         <v>1661</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -4522,7 +4516,7 @@
         <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -4531,10 +4525,10 @@
         <v>8736</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>242</v>
@@ -4555,10 +4549,10 @@
         <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>40</v>
@@ -4567,13 +4561,13 @@
         <v>39013</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>69</v>
@@ -4582,13 +4576,13 @@
         <v>65056</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,10 +4597,10 @@
         <v>253956</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>253</v>
@@ -4720,7 +4714,7 @@
         <v>10840</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>271</v>
@@ -4741,7 +4735,7 @@
         <v>274</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4803,13 @@
         <v>51911</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H40" s="7">
         <v>58</v>
@@ -4824,13 +4818,13 @@
         <v>60318</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>109</v>
@@ -4839,13 +4833,13 @@
         <v>112229</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,10 +4857,10 @@
         <v>282</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H41" s="7">
         <v>239</v>
@@ -4875,13 +4869,13 @@
         <v>245620</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M41" s="7">
         <v>525</v>
@@ -4890,13 +4884,13 @@
         <v>531798</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4905,13 @@
         <v>1627987</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H42" s="7">
         <v>1789</v>
@@ -4926,28 +4920,28 @@
         <v>1831585</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M42" s="7">
         <v>3379</v>
       </c>
       <c r="N42" s="7">
-        <v>3459571</v>
+        <v>3459572</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +4956,13 @@
         <v>1233830</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H43" s="7">
         <v>1127</v>
@@ -4977,28 +4971,28 @@
         <v>1155948</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M43" s="7">
         <v>2338</v>
       </c>
       <c r="N43" s="7">
-        <v>2389778</v>
+        <v>2389779</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5007,13 @@
         <v>75769</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H44" s="7">
         <v>82</v>
@@ -5028,13 +5022,13 @@
         <v>83673</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>311</v>
+        <v>187</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>312</v>
+        <v>140</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="M44" s="7">
         <v>157</v>
@@ -5043,13 +5037,13 @@
         <v>159442</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,7 +5085,7 @@
         <v>6508</v>
       </c>
       <c r="N45" s="7">
-        <v>6652818</v>
+        <v>6652819</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -5105,7 +5099,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -5127,7 +5121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93B20C6-6017-4265-ADB2-F98C691DDD58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA6A556-AAFC-40AB-A688-644B3F6A400D}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5144,7 +5138,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5251,13 +5245,13 @@
         <v>10864</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>247</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -5266,13 +5260,13 @@
         <v>16274</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>109</v>
+        <v>315</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -5281,13 +5275,13 @@
         <v>27137</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5296,13 @@
         <v>64910</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -5317,13 +5311,13 @@
         <v>35200</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>99</v>
@@ -5332,13 +5326,13 @@
         <v>100110</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5347,13 @@
         <v>241070</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H6" s="7">
         <v>228</v>
@@ -5368,13 +5362,13 @@
         <v>233609</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M6" s="7">
         <v>466</v>
@@ -5383,13 +5377,13 @@
         <v>474679</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>340</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5398,13 @@
         <v>120536</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
@@ -5419,13 +5413,13 @@
         <v>136122</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>250</v>
@@ -5434,13 +5428,13 @@
         <v>256658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5449,13 @@
         <v>15779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5470,13 +5464,13 @@
         <v>8127</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -5485,13 +5479,13 @@
         <v>23906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5553,13 @@
         <v>10108</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -5574,13 +5568,13 @@
         <v>10159</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5589,13 +5583,13 @@
         <v>20268</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5604,13 @@
         <v>69700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
@@ -5625,13 +5619,13 @@
         <v>48378</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>112</v>
@@ -5640,13 +5634,13 @@
         <v>118078</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5655,13 @@
         <v>370217</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H12" s="7">
         <v>304</v>
@@ -5676,13 +5670,13 @@
         <v>325378</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M12" s="7">
         <v>671</v>
@@ -5691,13 +5685,13 @@
         <v>695594</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5706,13 @@
         <v>220404</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -5727,13 +5721,13 @@
         <v>208741</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>403</v>
@@ -5742,13 +5736,13 @@
         <v>429145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5757,13 @@
         <v>16658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -5778,13 +5772,13 @@
         <v>17598</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -5793,13 +5787,13 @@
         <v>34257</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,7 +5849,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5867,13 +5861,13 @@
         <v>12139</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>144</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5882,13 +5876,13 @@
         <v>6937</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5897,13 +5891,13 @@
         <v>19077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5912,13 @@
         <v>68441</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -5933,13 +5927,13 @@
         <v>58473</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -5948,13 +5942,13 @@
         <v>126914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5963,13 @@
         <v>336093</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H18" s="7">
         <v>349</v>
@@ -5984,13 +5978,13 @@
         <v>367932</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>412</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M18" s="7">
         <v>674</v>
@@ -5999,13 +5993,13 @@
         <v>704025</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6014,13 @@
         <v>250443</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>421</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>235</v>
@@ -6035,13 +6029,13 @@
         <v>254516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
         <v>473</v>
@@ -6050,13 +6044,13 @@
         <v>504959</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>88</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6065,13 @@
         <v>13783</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -6086,13 +6080,13 @@
         <v>20970</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>13</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -6101,13 +6095,13 @@
         <v>34753</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,7 +6157,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6175,13 +6169,13 @@
         <v>8880</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -6190,13 +6184,13 @@
         <v>6652</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>438</v>
+        <v>52</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>439</v>
+        <v>198</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6205,13 +6199,13 @@
         <v>15532</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>319</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>441</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6220,13 @@
         <v>49608</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -6241,13 +6235,13 @@
         <v>38734</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>447</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -6256,13 +6250,13 @@
         <v>88342</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6271,13 @@
         <v>314157</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H24" s="7">
         <v>281</v>
@@ -6292,13 +6286,13 @@
         <v>322639</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>454</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M24" s="7">
         <v>562</v>
@@ -6307,13 +6301,13 @@
         <v>636796</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +6322,13 @@
         <v>213046</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H25" s="7">
         <v>204</v>
@@ -6343,13 +6337,13 @@
         <v>234260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>217</v>
+        <v>458</v>
       </c>
       <c r="M25" s="7">
         <v>394</v>
@@ -6358,13 +6352,13 @@
         <v>447306</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>466</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6373,13 @@
         <v>26855</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -6394,13 +6388,13 @@
         <v>12904</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>276</v>
+        <v>464</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -6409,13 +6403,13 @@
         <v>39758</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,7 +6465,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6483,13 +6477,13 @@
         <v>7094</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6498,13 +6492,13 @@
         <v>2971</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -6513,13 +6507,13 @@
         <v>10065</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>471</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,13 +6528,13 @@
         <v>32143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>477</v>
+        <v>406</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -6549,13 +6543,13 @@
         <v>27847</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M29" s="7">
         <v>54</v>
@@ -6564,13 +6558,13 @@
         <v>59990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6579,13 @@
         <v>223963</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H30" s="7">
         <v>203</v>
@@ -6600,13 +6594,13 @@
         <v>222477</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>490</v>
+        <v>261</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M30" s="7">
         <v>403</v>
@@ -6615,13 +6609,13 @@
         <v>446440</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,13 +6630,13 @@
         <v>155417</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H31" s="7">
         <v>166</v>
@@ -6651,13 +6645,13 @@
         <v>182047</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M31" s="7">
         <v>312</v>
@@ -6666,13 +6660,13 @@
         <v>337464</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,13 +6681,13 @@
         <v>9764</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>504</v>
+        <v>69</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -6702,13 +6696,13 @@
         <v>12458</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>506</v>
+        <v>16</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -6717,13 +6711,13 @@
         <v>22222</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>104</v>
+        <v>356</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6779,7 +6773,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6791,13 +6785,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>439</v>
+        <v>502</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -6806,13 +6800,13 @@
         <v>3053</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>187</v>
+        <v>503</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -6821,13 +6815,13 @@
         <v>3053</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>152</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,13 +6836,13 @@
         <v>42038</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H35" s="7">
         <v>48</v>
@@ -6857,13 +6851,13 @@
         <v>51535</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="M35" s="7">
         <v>86</v>
@@ -6872,13 +6866,13 @@
         <v>93574</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>207</v>
+        <v>514</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>282</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +6887,13 @@
         <v>294792</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H36" s="7">
         <v>356</v>
@@ -6908,13 +6902,13 @@
         <v>379794</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M36" s="7">
         <v>625</v>
@@ -6923,13 +6917,13 @@
         <v>674586</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,13 +6938,13 @@
         <v>209518</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H37" s="7">
         <v>258</v>
@@ -6959,13 +6953,13 @@
         <v>274690</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="M37" s="7">
         <v>443</v>
@@ -6974,13 +6968,13 @@
         <v>484208</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,13 +6989,13 @@
         <v>11238</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>52</v>
+        <v>535</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>229</v>
+        <v>501</v>
       </c>
       <c r="H38" s="7">
         <v>25</v>
@@ -7025,13 +7019,13 @@
         <v>40145</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7093,13 @@
         <v>49085</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>510</v>
-      </c>
       <c r="G40" s="7" t="s">
-        <v>428</v>
+        <v>542</v>
       </c>
       <c r="H40" s="7">
         <v>44</v>
@@ -7114,13 +7108,13 @@
         <v>46047</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>242</v>
+        <v>543</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>199</v>
+        <v>544</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M40" s="7">
         <v>88</v>
@@ -7129,13 +7123,13 @@
         <v>95132</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7144,13 @@
         <v>326841</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>410</v>
+        <v>549</v>
       </c>
       <c r="H41" s="7">
         <v>243</v>
@@ -7165,13 +7159,13 @@
         <v>260167</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>546</v>
+        <v>287</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>408</v>
+        <v>551</v>
       </c>
       <c r="M41" s="7">
         <v>549</v>
@@ -7180,13 +7174,13 @@
         <v>587007</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7195,13 @@
         <v>1780291</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>339</v>
+        <v>557</v>
       </c>
       <c r="H42" s="7">
         <v>1721</v>
@@ -7216,13 +7210,13 @@
         <v>1851828</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>554</v>
+        <v>86</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M42" s="7">
         <v>3401</v>
@@ -7231,13 +7225,13 @@
         <v>3632119</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7246,13 @@
         <v>1169364</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H43" s="7">
         <v>1190</v>
@@ -7267,13 +7261,13 @@
         <v>1290376</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>462</v>
+        <v>568</v>
       </c>
       <c r="M43" s="7">
         <v>2275</v>
@@ -7282,13 +7276,13 @@
         <v>2459740</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7297,13 @@
         <v>94077</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>568</v>
+        <v>146</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>569</v>
+        <v>468</v>
       </c>
       <c r="H44" s="7">
         <v>92</v>
@@ -7318,13 +7312,13 @@
         <v>100964</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M44" s="7">
         <v>179</v>
@@ -7333,13 +7327,13 @@
         <v>195041</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>361</v>
+        <v>272</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>572</v>
+        <v>310</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7395,7 +7389,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -7417,7 +7411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E71A02-F2C7-4494-98F8-9E57F341DE4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101B5513-9EC5-4320-8CB3-8144C94B0679}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7434,7 +7428,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7541,13 +7535,13 @@
         <v>12893</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>542</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -7556,10 +7550,10 @@
         <v>9343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>572</v>
+        <v>108</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>576</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>577</v>
@@ -7574,10 +7568,10 @@
         <v>578</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,13 +7586,13 @@
         <v>51765</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H5" s="7">
         <v>57</v>
@@ -7607,13 +7601,13 @@
         <v>56233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M5" s="7">
         <v>105</v>
@@ -7622,13 +7616,13 @@
         <v>107999</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,13 +7637,13 @@
         <v>241295</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>294</v>
+        <v>590</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H6" s="7">
         <v>243</v>
@@ -7658,13 +7652,13 @@
         <v>236472</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M6" s="7">
         <v>470</v>
@@ -7673,13 +7667,13 @@
         <v>477766</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,13 +7688,13 @@
         <v>107923</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -7709,13 +7703,13 @@
         <v>86897</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -7724,13 +7718,13 @@
         <v>194820</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7739,13 @@
         <v>4501</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>438</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -7760,13 +7754,13 @@
         <v>5725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>607</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>609</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -7775,13 +7769,13 @@
         <v>10226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>608</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7849,13 +7843,13 @@
         <v>14406</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>610</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>612</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>504</v>
+        <v>613</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -7864,13 +7858,13 @@
         <v>16872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>615</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -7879,13 +7873,13 @@
         <v>31278</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>468</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7894,13 @@
         <v>60752</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>618</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -7915,13 +7909,13 @@
         <v>60565</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>620</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>615</v>
+        <v>551</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="M11" s="7">
         <v>119</v>
@@ -7930,13 +7924,13 @@
         <v>121318</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7945,13 @@
         <v>340841</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="H12" s="7">
         <v>358</v>
@@ -7966,13 +7960,13 @@
         <v>343814</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>624</v>
+        <v>519</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="M12" s="7">
         <v>687</v>
@@ -7981,13 +7975,13 @@
         <v>684655</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +7996,13 @@
         <v>165809</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>634</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -8017,13 +8011,13 @@
         <v>130736</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -8032,13 +8026,13 @@
         <v>296545</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8047,13 @@
         <v>7671</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>543</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>606</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -8068,13 +8062,13 @@
         <v>7768</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>636</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>637</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -8083,13 +8077,13 @@
         <v>15440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>638</v>
+        <v>314</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>639</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>640</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,7 +8139,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8157,13 +8151,13 @@
         <v>8985</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>643</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -8172,13 +8166,13 @@
         <v>10199</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>642</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>639</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -8187,13 +8181,13 @@
         <v>19184</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,13 +8202,13 @@
         <v>64996</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>647</v>
+        <v>27</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -8226,10 +8220,10 @@
         <v>648</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>166</v>
+        <v>649</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>649</v>
+        <v>28</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -8241,10 +8235,10 @@
         <v>650</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,28 +8253,28 @@
         <v>432963</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>654</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>655</v>
       </c>
       <c r="H18" s="7">
         <v>388</v>
       </c>
       <c r="I18" s="7">
-        <v>383234</v>
+        <v>383233</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>658</v>
       </c>
       <c r="M18" s="7">
         <v>798</v>
@@ -8289,13 +8283,13 @@
         <v>816196</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +8304,13 @@
         <v>151582</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H19" s="7">
         <v>201</v>
@@ -8325,13 +8319,13 @@
         <v>201668</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="M19" s="7">
         <v>348</v>
@@ -8340,13 +8334,13 @@
         <v>353250</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,10 +8358,10 @@
         <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>187</v>
+        <v>396</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -8376,13 +8370,13 @@
         <v>10031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>671</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>672</v>
+        <v>642</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>11</v>
+        <v>537</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -8391,13 +8385,13 @@
         <v>16987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>274</v>
+        <v>612</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>639</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8424,7 +8418,7 @@
         <v>664</v>
       </c>
       <c r="I21" s="7">
-        <v>660276</v>
+        <v>660275</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -8453,7 +8447,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8465,13 +8459,13 @@
         <v>6957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>438</v>
+        <v>52</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>57</v>
+        <v>670</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -8480,13 +8474,13 @@
         <v>8893</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>643</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -8495,13 +8489,13 @@
         <v>15851</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>474</v>
+        <v>672</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8516,13 +8510,13 @@
         <v>64926</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>676</v>
+        <v>400</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -8531,13 +8525,13 @@
         <v>49331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>538</v>
+        <v>246</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M23" s="7">
         <v>99</v>
@@ -8546,13 +8540,13 @@
         <v>114256</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>681</v>
+        <v>284</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>617</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8567,13 +8561,13 @@
         <v>388532</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H24" s="7">
         <v>353</v>
@@ -8582,13 +8576,13 @@
         <v>374993</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>377</v>
+        <v>683</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="M24" s="7">
         <v>711</v>
@@ -8597,13 +8591,13 @@
         <v>763525</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,13 +8612,13 @@
         <v>175316</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>690</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>692</v>
       </c>
       <c r="H25" s="7">
         <v>182</v>
@@ -8633,13 +8627,13 @@
         <v>198571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>463</v>
+        <v>567</v>
       </c>
       <c r="M25" s="7">
         <v>336</v>
@@ -8648,13 +8642,13 @@
         <v>373888</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8669,13 +8663,13 @@
         <v>9229</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>63</v>
+        <v>696</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>641</v>
+        <v>697</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>611</v>
+        <v>698</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -8684,13 +8678,13 @@
         <v>16176</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -8699,13 +8693,13 @@
         <v>25405</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>699</v>
+        <v>397</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>274</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>323</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8761,7 +8755,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8773,13 +8767,13 @@
         <v>1175</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>360</v>
+        <v>535</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8788,13 +8782,13 @@
         <v>6658</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>638</v>
+        <v>314</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>702</v>
+        <v>348</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -8809,7 +8803,7 @@
         <v>704</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>705</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8824,13 +8818,13 @@
         <v>42010</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>618</v>
+        <v>445</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>707</v>
       </c>
       <c r="H29" s="7">
         <v>37</v>
@@ -8839,13 +8833,13 @@
         <v>43533</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>709</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>710</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -8854,13 +8848,13 @@
         <v>85543</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>712</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>713</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8875,13 +8869,13 @@
         <v>288646</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="H30" s="7">
         <v>264</v>
@@ -8890,13 +8884,13 @@
         <v>303520</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>717</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>719</v>
       </c>
       <c r="M30" s="7">
         <v>525</v>
@@ -8905,13 +8899,13 @@
         <v>592166</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8926,13 +8920,13 @@
         <v>139557</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>723</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>724</v>
+        <v>422</v>
       </c>
       <c r="H31" s="7">
         <v>117</v>
@@ -8941,13 +8935,13 @@
         <v>133198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>604</v>
+        <v>723</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>726</v>
       </c>
       <c r="M31" s="7">
         <v>237</v>
@@ -8956,13 +8950,13 @@
         <v>272755</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8977,13 +8971,13 @@
         <v>6530</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>361</v>
+        <v>730</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -8992,10 +8986,10 @@
         <v>9940</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>731</v>
+        <v>357</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>732</v>
@@ -9007,13 +9001,13 @@
         <v>16469</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>733</v>
+        <v>395</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>395</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9069,7 +9063,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9081,13 +9075,13 @@
         <v>9340</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>240</v>
+        <v>398</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -9096,13 +9090,13 @@
         <v>2470</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>143</v>
+        <v>734</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
@@ -9114,10 +9108,10 @@
         <v>735</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>736</v>
+        <v>186</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9132,13 +9126,13 @@
         <v>43832</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>738</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>739</v>
       </c>
       <c r="H35" s="7">
         <v>37</v>
@@ -9147,13 +9141,13 @@
         <v>40553</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>741</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>83</v>
@@ -9162,13 +9156,13 @@
         <v>84385</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>743</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9183,10 +9177,10 @@
         <v>362575</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>745</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>746</v>
@@ -9234,13 +9228,13 @@
         <v>168455</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>755</v>
       </c>
       <c r="H37" s="7">
         <v>200</v>
@@ -9249,13 +9243,13 @@
         <v>242014</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>757</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>758</v>
       </c>
       <c r="M37" s="7">
         <v>376</v>
@@ -9264,13 +9258,13 @@
         <v>410469</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>760</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9285,13 +9279,13 @@
         <v>5245</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>644</v>
+        <v>761</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>762</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>312</v>
+        <v>763</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -9300,13 +9294,13 @@
         <v>13241</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>114</v>
+        <v>354</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>99</v>
+        <v>572</v>
       </c>
       <c r="M38" s="7">
         <v>16</v>
@@ -9315,13 +9309,13 @@
         <v>18485</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>764</v>
+        <v>703</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>765</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9389,13 +9383,13 @@
         <v>53757</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>275</v>
+        <v>765</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>51</v>
+        <v>273</v>
       </c>
       <c r="H40" s="7">
         <v>52</v>
@@ -9404,13 +9398,13 @@
         <v>54436</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>642</v>
+        <v>100</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>428</v>
+        <v>766</v>
       </c>
       <c r="M40" s="7">
         <v>103</v>
@@ -9419,10 +9413,10 @@
         <v>108193</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>766</v>
+        <v>612</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>767</v>
@@ -9443,10 +9437,10 @@
         <v>768</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="H41" s="7">
         <v>291</v>
@@ -9455,13 +9449,13 @@
         <v>305359</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>771</v>
+        <v>516</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>772</v>
+        <v>400</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="M41" s="7">
         <v>597</v>
@@ -9470,13 +9464,13 @@
         <v>633640</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9491,13 +9485,13 @@
         <v>2054853</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>778</v>
+        <v>685</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="H42" s="7">
         <v>2011</v>
@@ -9506,13 +9500,13 @@
         <v>2121685</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="M42" s="7">
         <v>3984</v>
@@ -9521,13 +9515,13 @@
         <v>4176538</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9542,13 +9536,13 @@
         <v>908642</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>633</v>
+        <v>781</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H43" s="7">
         <v>918</v>
@@ -9557,13 +9551,13 @@
         <v>993085</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>668</v>
+        <v>785</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="M43" s="7">
         <v>1776</v>
@@ -9572,13 +9566,13 @@
         <v>1901728</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9593,13 +9587,13 @@
         <v>40131</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>794</v>
+        <v>398</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>763</v>
+        <v>791</v>
       </c>
       <c r="H44" s="7">
         <v>59</v>
@@ -9608,13 +9602,13 @@
         <v>62881</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="M44" s="7">
         <v>94</v>
@@ -9623,13 +9617,13 @@
         <v>103012</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>674</v>
+        <v>793</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>189</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9685,7 +9679,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB847838-E4AD-4108-AC33-E6B58126552C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8764DE0-9FA7-4880-BA77-BC560F806FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9AFEE0C5-7DFD-4F85-957E-E23CE6735432}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0468DCD-3DD2-48C4-B87E-28629002B038}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="797">
   <si>
     <t>Población según la frecuencia de consumo de pescado en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -76,2350 +76,2359 @@
     <t>2,67%</t>
   </si>
   <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pescado en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
+    <t>9,57%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>60,69%</t>
   </si>
   <si>
-    <t>62,39%</t>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
   </si>
   <si>
     <t>59,98%</t>
   </si>
   <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
   </si>
   <si>
     <t>60,33%</t>
   </si>
   <si>
-    <t>59,18%</t>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
   </si>
   <si>
     <t>26,84%</t>
   </si>
   <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
+    <t>25,26%</t>
   </si>
   <si>
     <t>28,07%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
   </si>
   <si>
     <t>27,47%</t>
   </si>
   <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>1,18%</t>
+    <t>1,21%</t>
   </si>
 </sst>
 </file>
@@ -2831,7 +2840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9306CE49-9B7A-49EB-BBAC-60D73A84033F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9894F931-E381-440D-B357-6313F3B961CA}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3269,7 +3278,7 @@
         <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3278,13 +3287,13 @@
         <v>22683</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -3293,13 +3302,13 @@
         <v>41129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3323,13 @@
         <v>83703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>54</v>
@@ -3329,13 +3338,13 @@
         <v>59448</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>136</v>
@@ -3344,13 +3353,13 @@
         <v>143151</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3374,13 @@
         <v>368414</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>330</v>
@@ -3380,13 +3389,13 @@
         <v>349039</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>684</v>
@@ -3395,13 +3404,13 @@
         <v>717453</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3425,13 @@
         <v>250460</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -3431,13 +3440,13 @@
         <v>176606</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>404</v>
@@ -3446,13 +3455,13 @@
         <v>427065</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3476,13 @@
         <v>14465</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3482,13 +3491,13 @@
         <v>16724</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -3497,13 +3506,13 @@
         <v>31189</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,7 +3568,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3571,13 +3580,13 @@
         <v>7471</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3586,13 +3595,13 @@
         <v>12910</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3601,13 +3610,13 @@
         <v>20381</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3631,13 @@
         <v>54846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -3637,13 +3646,13 @@
         <v>39813</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -3652,13 +3661,13 @@
         <v>94659</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3682,13 @@
         <v>328575</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>378</v>
@@ -3688,13 +3697,13 @@
         <v>394177</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>689</v>
@@ -3703,13 +3712,13 @@
         <v>722752</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3733,13 @@
         <v>234919</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>214</v>
@@ -3739,13 +3748,13 @@
         <v>227142</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>441</v>
@@ -3754,13 +3763,13 @@
         <v>462060</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3784,13 @@
         <v>12858</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -3790,7 +3799,7 @@
         <v>15702</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>144</v>
@@ -3879,13 +3888,13 @@
         <v>8269</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3894,13 +3903,13 @@
         <v>4545</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3915,7 +3924,7 @@
         <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3939,13 @@
         <v>40179</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -3945,13 +3954,13 @@
         <v>27004</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -3960,13 +3969,13 @@
         <v>67183</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3990,13 @@
         <v>247898</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>294</v>
@@ -3996,13 +4005,13 @@
         <v>298746</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>523</v>
@@ -4011,13 +4020,13 @@
         <v>546644</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4041,13 @@
         <v>216917</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>166</v>
@@ -4047,13 +4056,13 @@
         <v>172124</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>368</v>
@@ -4062,13 +4071,13 @@
         <v>389041</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4092,13 @@
         <v>5884</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4101,10 +4110,10 @@
         <v>54</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -4113,13 +4122,13 @@
         <v>19107</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,7 +4184,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4187,13 +4196,13 @@
         <v>2891</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4202,13 +4211,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4217,13 +4226,13 @@
         <v>2891</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4247,13 @@
         <v>19905</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -4253,13 +4262,13 @@
         <v>22377</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>41</v>
@@ -4268,13 +4277,13 @@
         <v>42282</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4298,13 @@
         <v>180938</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>208</v>
@@ -4304,13 +4313,13 @@
         <v>211510</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>390</v>
@@ -4319,13 +4328,13 @@
         <v>392448</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4349,13 @@
         <v>164126</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>152</v>
@@ -4355,13 +4364,13 @@
         <v>154874</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>321</v>
@@ -4370,13 +4379,13 @@
         <v>319000</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4400,13 @@
         <v>18850</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>15</v>
@@ -4406,13 +4415,13 @@
         <v>15225</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>33</v>
@@ -4421,13 +4430,13 @@
         <v>34075</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,7 +4492,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4495,13 +4504,13 @@
         <v>1661</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -4510,13 +4519,13 @@
         <v>7074</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -4525,13 +4534,13 @@
         <v>8736</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4555,13 @@
         <v>26044</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>40</v>
@@ -4561,13 +4570,13 @@
         <v>39013</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>69</v>
@@ -4576,13 +4585,13 @@
         <v>65056</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4606,13 @@
         <v>253956</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>333</v>
@@ -4615,10 +4624,10 @@
         <v>34</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>595</v>
@@ -4627,13 +4636,13 @@
         <v>596214</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4657,13 @@
         <v>206637</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>270</v>
@@ -4663,13 +4672,13 @@
         <v>277656</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>486</v>
@@ -4678,13 +4687,13 @@
         <v>484293</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4708,13 @@
         <v>13300</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -4714,13 +4723,13 @@
         <v>10840</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>23</v>
@@ -4729,13 +4738,13 @@
         <v>24141</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4812,13 @@
         <v>51911</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H40" s="7">
         <v>58</v>
@@ -4818,13 +4827,13 @@
         <v>60318</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>280</v>
+        <v>103</v>
       </c>
       <c r="M40" s="7">
         <v>109</v>
@@ -4833,13 +4842,13 @@
         <v>112229</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>157</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4863,13 @@
         <v>286178</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>239</v>
@@ -4869,13 +4878,13 @@
         <v>245620</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M41" s="7">
         <v>525</v>
@@ -4884,7 +4893,7 @@
         <v>531798</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>287</v>
@@ -4986,13 +4995,13 @@
         <v>2389779</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5016,13 @@
         <v>75769</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H44" s="7">
         <v>82</v>
@@ -5022,13 +5031,13 @@
         <v>83673</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>187</v>
+        <v>308</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>140</v>
+        <v>309</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>98</v>
+        <v>310</v>
       </c>
       <c r="M44" s="7">
         <v>157</v>
@@ -5037,13 +5046,13 @@
         <v>159442</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,7 +5108,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -5121,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA6A556-AAFC-40AB-A688-644B3F6A400D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FDC2BB-D708-4356-8D54-F9691D9D45E2}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5138,7 +5147,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5245,13 +5254,13 @@
         <v>10864</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -5260,13 +5269,13 @@
         <v>16274</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>315</v>
+        <v>103</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -5275,13 +5284,13 @@
         <v>27137</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5305,13 @@
         <v>64910</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -5311,13 +5320,13 @@
         <v>35200</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M5" s="7">
         <v>99</v>
@@ -5326,13 +5335,13 @@
         <v>100110</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5356,13 @@
         <v>241070</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H6" s="7">
         <v>228</v>
@@ -5362,13 +5371,13 @@
         <v>233609</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M6" s="7">
         <v>466</v>
@@ -5377,13 +5386,13 @@
         <v>474679</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>336</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5407,13 @@
         <v>120536</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
@@ -5413,13 +5422,13 @@
         <v>136122</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>250</v>
@@ -5428,13 +5437,13 @@
         <v>256658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,13 +5458,13 @@
         <v>15779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5464,13 +5473,13 @@
         <v>8127</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -5479,13 +5488,13 @@
         <v>23906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5562,13 @@
         <v>10108</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -5568,13 +5577,13 @@
         <v>10159</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5583,13 +5592,13 @@
         <v>20268</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,10 +5616,10 @@
         <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
@@ -5619,13 +5628,13 @@
         <v>48378</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>112</v>
@@ -5634,13 +5643,13 @@
         <v>118078</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5664,13 @@
         <v>370217</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H12" s="7">
         <v>304</v>
@@ -5670,13 +5679,13 @@
         <v>325378</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M12" s="7">
         <v>671</v>
@@ -5685,13 +5694,13 @@
         <v>695594</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5715,13 @@
         <v>220404</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -5721,13 +5730,13 @@
         <v>208741</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>403</v>
@@ -5736,13 +5745,13 @@
         <v>429145</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5766,13 @@
         <v>16658</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -5772,13 +5781,13 @@
         <v>17598</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -5787,10 +5796,10 @@
         <v>34257</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>392</v>
@@ -5849,7 +5858,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5864,10 +5873,10 @@
         <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>357</v>
+        <v>152</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>112</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5876,13 +5885,13 @@
         <v>6937</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5891,13 +5900,13 @@
         <v>19077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>269</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5921,13 @@
         <v>68441</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -5927,13 +5936,13 @@
         <v>58473</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -5984,7 +5993,7 @@
         <v>412</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>413</v>
+        <v>294</v>
       </c>
       <c r="M18" s="7">
         <v>674</v>
@@ -5993,13 +6002,13 @@
         <v>704025</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,10 +6023,10 @@
         <v>250443</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>417</v>
@@ -6068,10 +6077,10 @@
         <v>424</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>425</v>
+        <v>234</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>426</v>
+        <v>199</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -6080,13 +6089,13 @@
         <v>20970</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -6095,13 +6104,13 @@
         <v>34753</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6178,13 @@
         <v>8880</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -6184,13 +6193,13 @@
         <v>6652</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>52</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>237</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6199,13 +6208,13 @@
         <v>15532</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6229,13 @@
         <v>49608</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -6235,13 +6244,13 @@
         <v>38734</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -6250,13 +6259,13 @@
         <v>88342</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6280,13 @@
         <v>314157</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H24" s="7">
         <v>281</v>
@@ -6286,7 +6295,7 @@
         <v>322639</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>448</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>449</v>
@@ -6322,7 +6331,7 @@
         <v>213046</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>454</v>
@@ -6358,7 +6367,7 @@
         <v>460</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>300</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,13 +6382,13 @@
         <v>26855</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -6388,7 +6397,7 @@
         <v>12904</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>464</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>465</v>
@@ -6406,10 +6415,10 @@
         <v>467</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>280</v>
+        <v>468</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,7 +6474,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6477,13 +6486,13 @@
         <v>7094</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>151</v>
+        <v>470</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6492,13 +6501,13 @@
         <v>2971</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>470</v>
+        <v>385</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -6507,13 +6516,13 @@
         <v>10065</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>465</v>
+        <v>234</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6537,13 @@
         <v>32143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>406</v>
+        <v>475</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -6543,13 +6552,13 @@
         <v>27847</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M29" s="7">
         <v>54</v>
@@ -6558,13 +6567,13 @@
         <v>59990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>479</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,13 +6588,13 @@
         <v>223963</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H30" s="7">
         <v>203</v>
@@ -6594,13 +6603,13 @@
         <v>222477</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>261</v>
+        <v>487</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M30" s="7">
         <v>403</v>
@@ -6609,13 +6618,13 @@
         <v>446440</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,13 +6639,13 @@
         <v>155417</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H31" s="7">
         <v>166</v>
@@ -6645,13 +6654,13 @@
         <v>182047</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="M31" s="7">
         <v>312</v>
@@ -6660,13 +6669,13 @@
         <v>337464</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,13 +6690,13 @@
         <v>9764</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>498</v>
+        <v>184</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>69</v>
+        <v>501</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -6696,13 +6705,13 @@
         <v>12458</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>16</v>
+        <v>503</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -6711,13 +6720,13 @@
         <v>22222</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>356</v>
+        <v>104</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,7 +6782,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6785,13 +6794,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -6800,13 +6809,13 @@
         <v>3053</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -6815,13 +6824,13 @@
         <v>3053</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>351</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,13 +6845,13 @@
         <v>42038</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H35" s="7">
         <v>48</v>
@@ -6851,13 +6860,13 @@
         <v>51535</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>513</v>
+        <v>123</v>
       </c>
       <c r="M35" s="7">
         <v>86</v>
@@ -6866,13 +6875,13 @@
         <v>93574</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,13 +6896,13 @@
         <v>294792</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H36" s="7">
         <v>356</v>
@@ -6902,13 +6911,13 @@
         <v>379794</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M36" s="7">
         <v>625</v>
@@ -6917,13 +6926,13 @@
         <v>674586</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>524</v>
+        <v>333</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,7 +6947,7 @@
         <v>209518</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>526</v>
+        <v>180</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>527</v>
@@ -6959,7 +6968,7 @@
         <v>530</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>531</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>443</v>
@@ -6968,13 +6977,13 @@
         <v>484208</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,10 +7001,10 @@
         <v>424</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>535</v>
+        <v>350</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="H38" s="7">
         <v>25</v>
@@ -7004,13 +7013,13 @@
         <v>28907</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="M38" s="7">
         <v>35</v>
@@ -7019,10 +7028,10 @@
         <v>40145</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>111</v>
+        <v>537</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>539</v>
@@ -7093,13 +7102,13 @@
         <v>49085</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="H40" s="7">
         <v>44</v>
@@ -7108,13 +7117,13 @@
         <v>46047</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>544</v>
-      </c>
       <c r="L40" s="7" t="s">
-        <v>545</v>
+        <v>388</v>
       </c>
       <c r="M40" s="7">
         <v>88</v>
@@ -7123,13 +7132,13 @@
         <v>95132</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>269</v>
+        <v>397</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>190</v>
+        <v>544</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7144,13 +7153,13 @@
         <v>326841</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="H41" s="7">
         <v>243</v>
@@ -7159,13 +7168,13 @@
         <v>260167</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>287</v>
+        <v>549</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>550</v>
+        <v>163</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>551</v>
+        <v>403</v>
       </c>
       <c r="M41" s="7">
         <v>549</v>
@@ -7174,13 +7183,13 @@
         <v>587007</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,13 +7204,13 @@
         <v>1780291</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="H42" s="7">
         <v>1721</v>
@@ -7210,13 +7219,13 @@
         <v>1851828</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="M42" s="7">
         <v>3401</v>
@@ -7225,13 +7234,13 @@
         <v>3632119</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,13 +7255,13 @@
         <v>1169364</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>565</v>
+        <v>378</v>
       </c>
       <c r="H43" s="7">
         <v>1190</v>
@@ -7261,13 +7270,13 @@
         <v>1290376</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="M43" s="7">
         <v>2275</v>
@@ -7276,13 +7285,13 @@
         <v>2459740</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,13 +7306,13 @@
         <v>94077</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>146</v>
+        <v>569</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>468</v>
+        <v>570</v>
       </c>
       <c r="H44" s="7">
         <v>92</v>
@@ -7312,10 +7321,10 @@
         <v>100964</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>573</v>
@@ -7327,13 +7336,13 @@
         <v>195041</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>310</v>
+        <v>574</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,7 +7398,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7411,7 +7420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101B5513-9EC5-4320-8CB3-8144C94B0679}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DD9978-99C9-46C5-B203-EEC67F024909}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7428,7 +7437,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7535,13 +7544,13 @@
         <v>12893</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -7550,13 +7559,13 @@
         <v>9343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>108</v>
+        <v>578</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -7565,13 +7574,13 @@
         <v>22236</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>279</v>
+        <v>581</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,13 +7595,13 @@
         <v>51765</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="H5" s="7">
         <v>57</v>
@@ -7601,13 +7610,13 @@
         <v>56233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="M5" s="7">
         <v>105</v>
@@ -7616,13 +7625,13 @@
         <v>107999</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>587</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,13 +7646,13 @@
         <v>241295</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H6" s="7">
         <v>243</v>
@@ -7652,13 +7661,13 @@
         <v>236472</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M6" s="7">
         <v>470</v>
@@ -7667,13 +7676,13 @@
         <v>477766</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7688,13 +7697,13 @@
         <v>107923</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -7703,13 +7712,13 @@
         <v>86897</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -7718,13 +7727,13 @@
         <v>194820</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,13 +7748,13 @@
         <v>4501</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>52</v>
+        <v>432</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>608</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -7754,13 +7763,13 @@
         <v>5725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>197</v>
+        <v>610</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>609</v>
+        <v>274</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -7769,13 +7778,13 @@
         <v>10226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>273</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>610</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>611</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,7 +7852,7 @@
         <v>14406</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>611</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>612</v>
@@ -7858,13 +7867,13 @@
         <v>16872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>614</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>615</v>
+        <v>428</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>616</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -7873,13 +7882,13 @@
         <v>31278</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>614</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>109</v>
+        <v>391</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,13 +7903,13 @@
         <v>60752</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>619</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -7909,13 +7918,13 @@
         <v>60565</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>551</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="M11" s="7">
         <v>119</v>
@@ -7924,13 +7933,13 @@
         <v>121318</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,13 +7954,13 @@
         <v>340841</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="H12" s="7">
         <v>358</v>
@@ -7960,13 +7969,13 @@
         <v>343814</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="M12" s="7">
         <v>687</v>
@@ -7975,13 +7984,13 @@
         <v>684655</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,13 +8005,13 @@
         <v>165809</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>635</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -8011,13 +8020,13 @@
         <v>130736</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>638</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -8026,13 +8035,13 @@
         <v>296545</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +8056,13 @@
         <v>7671</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>504</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -8062,13 +8071,13 @@
         <v>7768</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>641</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>351</v>
+        <v>642</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>643</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -8077,13 +8086,13 @@
         <v>15440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>644</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>464</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8139,7 +8148,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8151,13 +8160,13 @@
         <v>8985</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>645</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -8166,13 +8175,13 @@
         <v>10199</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>648</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -8181,13 +8190,13 @@
         <v>19184</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>645</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8202,13 +8211,13 @@
         <v>64996</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>652</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -8217,13 +8226,13 @@
         <v>55144</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>28</v>
+        <v>548</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -8232,13 +8241,13 @@
         <v>120140</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>656</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8253,13 +8262,13 @@
         <v>432963</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="H18" s="7">
         <v>388</v>
@@ -8268,13 +8277,13 @@
         <v>383233</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>255</v>
+        <v>662</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="M18" s="7">
         <v>798</v>
@@ -8283,13 +8292,13 @@
         <v>816196</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8304,13 +8313,13 @@
         <v>151582</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="H19" s="7">
         <v>201</v>
@@ -8319,13 +8328,13 @@
         <v>201668</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>662</v>
+        <v>380</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>664</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>348</v>
@@ -8334,13 +8343,13 @@
         <v>353250</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8355,13 +8364,13 @@
         <v>6956</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -8370,13 +8379,13 @@
         <v>10031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>674</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>537</v>
+        <v>675</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -8385,13 +8394,13 @@
         <v>16987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>612</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>676</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>668</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8459,13 +8468,13 @@
         <v>6957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>52</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -8474,13 +8483,13 @@
         <v>8893</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>397</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>469</v>
+        <v>679</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>680</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -8489,13 +8498,13 @@
         <v>15851</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>672</v>
+        <v>642</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8510,13 +8519,13 @@
         <v>64926</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>674</v>
+        <v>402</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -8525,13 +8534,13 @@
         <v>49331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>246</v>
+        <v>684</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="M23" s="7">
         <v>99</v>
@@ -8540,13 +8549,13 @@
         <v>114256</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>284</v>
+        <v>687</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>678</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8561,13 +8570,13 @@
         <v>388532</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="H24" s="7">
         <v>353</v>
@@ -8576,13 +8585,13 @@
         <v>374993</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>682</v>
+        <v>332</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>683</v>
+        <v>367</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="M24" s="7">
         <v>711</v>
@@ -8591,13 +8600,13 @@
         <v>763525</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8612,13 +8621,13 @@
         <v>175316</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="H25" s="7">
         <v>182</v>
@@ -8627,13 +8636,13 @@
         <v>198571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>567</v>
+        <v>700</v>
       </c>
       <c r="M25" s="7">
         <v>336</v>
@@ -8642,13 +8651,13 @@
         <v>373888</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>693</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8663,13 +8672,13 @@
         <v>9229</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>696</v>
+        <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -8678,13 +8687,13 @@
         <v>16176</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>112</v>
+        <v>705</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -8693,13 +8702,13 @@
         <v>25405</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>397</v>
+        <v>707</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>274</v>
+        <v>681</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8755,7 +8764,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8767,13 +8776,13 @@
         <v>1175</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>535</v>
+        <v>155</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8782,13 +8791,13 @@
         <v>6658</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>348</v>
+        <v>580</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -8797,13 +8806,13 @@
         <v>7834</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>704</v>
+        <v>239</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8818,13 +8827,13 @@
         <v>42010</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>445</v>
+        <v>712</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="H29" s="7">
         <v>37</v>
@@ -8833,13 +8842,13 @@
         <v>43533</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -8848,13 +8857,13 @@
         <v>85543</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>710</v>
+        <v>519</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>620</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8869,13 +8878,13 @@
         <v>288646</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="H30" s="7">
         <v>264</v>
@@ -8884,13 +8893,13 @@
         <v>303520</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="M30" s="7">
         <v>525</v>
@@ -8899,13 +8908,13 @@
         <v>592166</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8920,13 +8929,13 @@
         <v>139557</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>721</v>
+        <v>179</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>422</v>
+        <v>729</v>
       </c>
       <c r="H31" s="7">
         <v>117</v>
@@ -8935,13 +8944,13 @@
         <v>133198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="M31" s="7">
         <v>237</v>
@@ -8950,13 +8959,13 @@
         <v>272755</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>728</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8971,13 +8980,13 @@
         <v>6530</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>269</v>
+        <v>397</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>730</v>
+        <v>17</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -8986,13 +8995,13 @@
         <v>9940</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>357</v>
+        <v>111</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -9001,13 +9010,13 @@
         <v>16469</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>395</v>
+        <v>737</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>268</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9063,7 +9072,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9075,13 +9084,13 @@
         <v>9340</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>398</v>
+        <v>738</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -9090,13 +9099,13 @@
         <v>2470</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>607</v>
+        <v>740</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
@@ -9105,13 +9114,13 @@
         <v>11810</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>735</v>
+        <v>270</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>186</v>
+        <v>742</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>12</v>
+        <v>674</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9126,13 +9135,13 @@
         <v>43832</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>737</v>
+        <v>247</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="H35" s="7">
         <v>37</v>
@@ -9141,13 +9150,13 @@
         <v>40553</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>740</v>
+        <v>392</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="M35" s="7">
         <v>83</v>
@@ -9156,13 +9165,13 @@
         <v>84385</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>232</v>
+        <v>747</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>742</v>
+        <v>164</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>743</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9177,13 +9186,13 @@
         <v>362575</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="H36" s="7">
         <v>405</v>
@@ -9192,13 +9201,13 @@
         <v>479653</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>747</v>
+        <v>625</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="M36" s="7">
         <v>793</v>
@@ -9207,13 +9216,13 @@
         <v>842228</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9228,13 +9237,13 @@
         <v>168455</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>640</v>
+        <v>756</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="H37" s="7">
         <v>200</v>
@@ -9243,13 +9252,13 @@
         <v>242014</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="M37" s="7">
         <v>376</v>
@@ -9258,13 +9267,13 @@
         <v>410469</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9279,13 +9288,13 @@
         <v>5245</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>763</v>
+        <v>538</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -9294,13 +9303,13 @@
         <v>13241</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>764</v>
+        <v>581</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>354</v>
+        <v>738</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>572</v>
+        <v>307</v>
       </c>
       <c r="M38" s="7">
         <v>16</v>
@@ -9309,13 +9318,13 @@
         <v>18485</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>144</v>
+        <v>645</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>703</v>
+        <v>767</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>435</v>
+        <v>768</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9383,13 +9392,13 @@
         <v>53757</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>765</v>
+        <v>465</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="H40" s="7">
         <v>52</v>
@@ -9398,13 +9407,13 @@
         <v>54436</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>100</v>
+        <v>648</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>465</v>
+        <v>769</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>766</v>
+        <v>735</v>
       </c>
       <c r="M40" s="7">
         <v>103</v>
@@ -9413,13 +9422,13 @@
         <v>108193</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>612</v>
+        <v>433</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>767</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9434,13 +9443,13 @@
         <v>328281</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>288</v>
+        <v>771</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>769</v>
+        <v>438</v>
       </c>
       <c r="H41" s="7">
         <v>291</v>
@@ -9449,13 +9458,13 @@
         <v>305359</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>516</v>
+        <v>772</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>400</v>
+        <v>162</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="M41" s="7">
         <v>597</v>
@@ -9464,13 +9473,13 @@
         <v>633640</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9485,13 +9494,13 @@
         <v>2054853</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>685</v>
+        <v>778</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="H42" s="7">
         <v>2011</v>
@@ -9500,13 +9509,13 @@
         <v>2121685</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="M42" s="7">
         <v>3984</v>
@@ -9515,13 +9524,13 @@
         <v>4176538</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9536,13 +9545,13 @@
         <v>908642</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>783</v>
+        <v>92</v>
       </c>
       <c r="H43" s="7">
         <v>918</v>
@@ -9551,13 +9560,13 @@
         <v>993085</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="M43" s="7">
         <v>1776</v>
@@ -9566,13 +9575,13 @@
         <v>1901728</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9587,13 +9596,13 @@
         <v>40131</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>398</v>
+        <v>738</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>791</v>
+        <v>269</v>
       </c>
       <c r="H44" s="7">
         <v>59</v>
@@ -9605,10 +9614,10 @@
         <v>393</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>65</v>
+        <v>468</v>
       </c>
       <c r="M44" s="7">
         <v>94</v>
@@ -9617,13 +9626,13 @@
         <v>103012</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>393</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9679,7 +9688,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8764DE0-9FA7-4880-BA77-BC560F806FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE0E7B4D-FE0F-4B44-B4D3-4FF36E819F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0468DCD-3DD2-48C4-B87E-28629002B038}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{24446C33-C549-4B96-8870-BA131EC9C4BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="879">
   <si>
     <t>Población según la frecuencia de consumo de pescado en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -223,7 +223,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>2,51%</t>
@@ -358,7 +358,7 @@
     <t>3,27%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,17%</t>
@@ -487,7 +487,7 @@
     <t>2,96%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -610,7 +610,7 @@
     <t>2,88%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -736,1693 +736,1939 @@
     <t>6,01%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pescado en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
   </si>
   <si>
     <t>1,49%</t>
@@ -2840,8 +3086,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9894F931-E381-440D-B357-6313F3B961CA}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2712A6D0-4756-4879-84E4-4ED23211D265}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3401,7 +3647,7 @@
         <v>684</v>
       </c>
       <c r="N12" s="7">
-        <v>717453</v>
+        <v>717454</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>86</v>
@@ -3452,7 +3698,7 @@
         <v>404</v>
       </c>
       <c r="N13" s="7">
-        <v>427065</v>
+        <v>427066</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>95</v>
@@ -3554,7 +3800,7 @@
         <v>1293</v>
       </c>
       <c r="N15" s="7">
-        <v>1359988</v>
+        <v>1359989</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -4498,49 +4744,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>1661</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1530</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H34" s="7">
-        <v>7</v>
-      </c>
-      <c r="I34" s="7">
-        <v>7074</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>2</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1530</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="L34" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M34" s="7">
-        <v>10</v>
-      </c>
-      <c r="N34" s="7">
-        <v>8736</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,49 +4795,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D35" s="7">
-        <v>26044</v>
+        <v>13640</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H35" s="7">
+        <v>24</v>
+      </c>
+      <c r="I35" s="7">
+        <v>21871</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>39</v>
+      </c>
+      <c r="N35" s="7">
+        <v>35511</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H35" s="7">
-        <v>40</v>
-      </c>
-      <c r="I35" s="7">
-        <v>39013</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M35" s="7">
-        <v>69</v>
-      </c>
-      <c r="N35" s="7">
-        <v>65056</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,49 +4846,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>262</v>
+        <v>160</v>
       </c>
       <c r="D36" s="7">
-        <v>253956</v>
+        <v>153338</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H36" s="7">
+        <v>190</v>
+      </c>
+      <c r="I36" s="7">
+        <v>176079</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>350</v>
+      </c>
+      <c r="N36" s="7">
+        <v>329417</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H36" s="7">
-        <v>333</v>
-      </c>
-      <c r="I36" s="7">
-        <v>342258</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M36" s="7">
-        <v>595</v>
-      </c>
-      <c r="N36" s="7">
-        <v>596214</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,49 +4897,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="D37" s="7">
-        <v>206637</v>
+        <v>117746</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H37" s="7">
+        <v>146</v>
+      </c>
+      <c r="I37" s="7">
+        <v>134906</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H37" s="7">
-        <v>270</v>
-      </c>
-      <c r="I37" s="7">
-        <v>277656</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>267</v>
+      </c>
+      <c r="N37" s="7">
+        <v>252653</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="M37" s="7">
-        <v>486</v>
-      </c>
-      <c r="N37" s="7">
-        <v>484293</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,49 +4948,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D38" s="7">
-        <v>13300</v>
+        <v>7858</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H38" s="7">
+        <v>9</v>
+      </c>
+      <c r="I38" s="7">
+        <v>8548</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>16</v>
+      </c>
+      <c r="N38" s="7">
+        <v>16406</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H38" s="7">
-        <v>11</v>
-      </c>
-      <c r="I38" s="7">
-        <v>10840</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M38" s="7">
-        <v>23</v>
-      </c>
-      <c r="N38" s="7">
-        <v>24141</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>274</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,10 +4999,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>522</v>
+        <v>303</v>
       </c>
       <c r="D39" s="7">
-        <v>501598</v>
+        <v>292583</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -4768,10 +5014,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I39" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -4783,10 +5029,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1183</v>
+        <v>674</v>
       </c>
       <c r="N39" s="7">
-        <v>1178440</v>
+        <v>635517</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -4800,55 +5046,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>270</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D40" s="7">
-        <v>51911</v>
+        <v>1661</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H40" s="7">
+        <v>5</v>
+      </c>
+      <c r="I40" s="7">
+        <v>5545</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="M40" s="7">
+        <v>8</v>
+      </c>
+      <c r="N40" s="7">
+        <v>7206</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="P40" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="H40" s="7">
-        <v>58</v>
-      </c>
-      <c r="I40" s="7">
-        <v>60318</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M40" s="7">
-        <v>109</v>
-      </c>
-      <c r="N40" s="7">
-        <v>112229</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,49 +5103,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
+        <v>14</v>
+      </c>
+      <c r="D41" s="7">
+        <v>12403</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H41" s="7">
+        <v>16</v>
+      </c>
+      <c r="I41" s="7">
+        <v>17142</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M41" s="7">
+        <v>30</v>
+      </c>
+      <c r="N41" s="7">
+        <v>29545</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="D41" s="7">
-        <v>286178</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H41" s="7">
-        <v>239</v>
-      </c>
-      <c r="I41" s="7">
-        <v>245620</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M41" s="7">
-        <v>525</v>
-      </c>
-      <c r="N41" s="7">
-        <v>531798</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,49 +5154,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>1590</v>
+        <v>102</v>
       </c>
       <c r="D42" s="7">
-        <v>1627987</v>
+        <v>100618</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H42" s="7">
+        <v>143</v>
+      </c>
+      <c r="I42" s="7">
+        <v>166179</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="K42" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H42" s="7">
-        <v>1789</v>
-      </c>
-      <c r="I42" s="7">
-        <v>1831585</v>
-      </c>
-      <c r="J42" s="7" t="s">
+      <c r="M42" s="7">
+        <v>245</v>
+      </c>
+      <c r="N42" s="7">
+        <v>266797</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="M42" s="7">
-        <v>3379</v>
-      </c>
-      <c r="N42" s="7">
-        <v>3459572</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,49 +5205,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>1211</v>
+        <v>95</v>
       </c>
       <c r="D43" s="7">
-        <v>1233830</v>
+        <v>88890</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H43" s="7">
+        <v>124</v>
+      </c>
+      <c r="I43" s="7">
+        <v>142750</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H43" s="7">
-        <v>1127</v>
-      </c>
-      <c r="I43" s="7">
-        <v>1155948</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="M43" s="7">
+        <v>219</v>
+      </c>
+      <c r="N43" s="7">
+        <v>231640</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="P43" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M43" s="7">
-        <v>2338</v>
-      </c>
-      <c r="N43" s="7">
-        <v>2389779</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,49 +5256,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D44" s="7">
-        <v>75769</v>
+        <v>5442</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="7">
+        <v>2</v>
+      </c>
+      <c r="I44" s="7">
+        <v>2292</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M44" s="7">
+        <v>7</v>
+      </c>
+      <c r="N44" s="7">
+        <v>7734</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H44" s="7">
-        <v>82</v>
-      </c>
-      <c r="I44" s="7">
-        <v>83673</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M44" s="7">
-        <v>157</v>
-      </c>
-      <c r="N44" s="7">
-        <v>159442</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="P44" s="7" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>271</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,63 +5307,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>219</v>
+      </c>
+      <c r="D45" s="7">
+        <v>209015</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>290</v>
+      </c>
+      <c r="I45" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>509</v>
+      </c>
+      <c r="N45" s="7">
+        <v>542923</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>51</v>
+      </c>
+      <c r="D46" s="7">
+        <v>51911</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H46" s="7">
+        <v>58</v>
+      </c>
+      <c r="I46" s="7">
+        <v>60318</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M46" s="7">
+        <v>109</v>
+      </c>
+      <c r="N46" s="7">
+        <v>112229</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>286</v>
+      </c>
+      <c r="D47" s="7">
+        <v>286178</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H47" s="7">
+        <v>239</v>
+      </c>
+      <c r="I47" s="7">
+        <v>245620</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M47" s="7">
+        <v>525</v>
+      </c>
+      <c r="N47" s="7">
+        <v>531798</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1590</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1627987</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1789</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1831584</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M48" s="7">
+        <v>3379</v>
+      </c>
+      <c r="N48" s="7">
+        <v>3459572</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1211</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1233830</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1127</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1155948</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M49" s="7">
+        <v>2338</v>
+      </c>
+      <c r="N49" s="7">
+        <v>2389779</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>75</v>
+      </c>
+      <c r="D50" s="7">
+        <v>75769</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H50" s="7">
+        <v>82</v>
+      </c>
+      <c r="I50" s="7">
+        <v>83673</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M50" s="7">
+        <v>157</v>
+      </c>
+      <c r="N50" s="7">
+        <v>159442</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3213</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3275675</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3295</v>
       </c>
-      <c r="I45" s="7">
-        <v>3377144</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3377143</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6508</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6652819</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>313</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5130,8 +5685,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FDC2BB-D708-4356-8D54-F9691D9D45E2}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54303460-B625-44EB-BF47-FFC14656E83E}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5147,7 +5702,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5254,13 +5809,13 @@
         <v>10864</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -5269,13 +5824,13 @@
         <v>16274</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>103</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -5284,13 +5839,13 @@
         <v>27137</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,13 +5860,13 @@
         <v>64910</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -5320,13 +5875,13 @@
         <v>35200</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>99</v>
@@ -5335,13 +5890,13 @@
         <v>100110</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5911,13 @@
         <v>241070</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="H6" s="7">
         <v>228</v>
@@ -5374,10 +5929,10 @@
         <v>130</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="M6" s="7">
         <v>466</v>
@@ -5386,13 +5941,13 @@
         <v>474679</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,13 +5962,13 @@
         <v>120536</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
@@ -5422,13 +5977,13 @@
         <v>136122</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="M7" s="7">
         <v>250</v>
@@ -5437,13 +5992,13 @@
         <v>256658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +6013,13 @@
         <v>15779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5473,13 +6028,13 @@
         <v>8127</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -5488,13 +6043,13 @@
         <v>23906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,10 +6120,10 @@
         <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -5577,13 +6132,13 @@
         <v>10159</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>387</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>388</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5592,13 +6147,13 @@
         <v>20268</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +6168,13 @@
         <v>69700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
@@ -5628,13 +6183,13 @@
         <v>48378</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="M11" s="7">
         <v>112</v>
@@ -5643,13 +6198,13 @@
         <v>118078</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +6219,13 @@
         <v>370217</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="H12" s="7">
         <v>304</v>
@@ -5679,13 +6234,13 @@
         <v>325378</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="M12" s="7">
         <v>671</v>
@@ -5694,13 +6249,13 @@
         <v>695594</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +6270,13 @@
         <v>220404</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -5730,13 +6285,13 @@
         <v>208741</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="M13" s="7">
         <v>403</v>
@@ -5745,13 +6300,13 @@
         <v>429145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +6321,13 @@
         <v>16658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -5784,10 +6339,10 @@
         <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -5796,13 +6351,13 @@
         <v>34257</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,7 +6425,7 @@
         <v>12139</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>152</v>
@@ -5885,13 +6440,13 @@
         <v>6937</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5900,13 +6455,13 @@
         <v>19077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +6476,13 @@
         <v>68441</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -5936,13 +6491,13 @@
         <v>58473</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -5951,13 +6506,13 @@
         <v>126914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +6527,13 @@
         <v>336093</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="H18" s="7">
         <v>349</v>
@@ -5987,13 +6542,13 @@
         <v>367932</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="M18" s="7">
         <v>674</v>
@@ -6002,13 +6557,13 @@
         <v>704025</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,10 +6581,10 @@
         <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="H19" s="7">
         <v>235</v>
@@ -6038,13 +6593,13 @@
         <v>254516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="M19" s="7">
         <v>473</v>
@@ -6053,13 +6608,13 @@
         <v>504959</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,10 +6629,10 @@
         <v>13783</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>454</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>199</v>
@@ -6092,10 +6647,10 @@
         <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -6104,10 +6659,10 @@
         <v>34753</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>202</v>
@@ -6178,13 +6733,13 @@
         <v>8880</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -6193,13 +6748,13 @@
         <v>6652</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>236</v>
+        <v>463</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>237</v>
+        <v>464</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6208,13 +6763,13 @@
         <v>15532</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6784,13 @@
         <v>49608</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>436</v>
+        <v>283</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -6244,13 +6799,13 @@
         <v>38734</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -6259,13 +6814,13 @@
         <v>88342</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6835,13 @@
         <v>314157</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="H24" s="7">
         <v>281</v>
@@ -6295,13 +6850,13 @@
         <v>322639</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="M24" s="7">
         <v>562</v>
@@ -6310,13 +6865,13 @@
         <v>636796</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,10 +6889,10 @@
         <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="H25" s="7">
         <v>204</v>
@@ -6346,13 +6901,13 @@
         <v>234260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="M25" s="7">
         <v>394</v>
@@ -6361,13 +6916,13 @@
         <v>447306</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6937,13 @@
         <v>26855</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -6400,10 +6955,10 @@
         <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -6412,13 +6967,13 @@
         <v>39758</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,13 +7041,13 @@
         <v>7094</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>357</v>
+        <v>273</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6501,13 +7056,13 @@
         <v>2971</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>472</v>
+        <v>274</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -6516,13 +7071,13 @@
         <v>10065</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>234</v>
+        <v>454</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>473</v>
+        <v>277</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +7092,13 @@
         <v>32143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -6552,13 +7107,13 @@
         <v>27847</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="M29" s="7">
         <v>54</v>
@@ -6567,13 +7122,13 @@
         <v>59990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +7143,13 @@
         <v>223963</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="H30" s="7">
         <v>203</v>
@@ -6603,13 +7158,13 @@
         <v>222477</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="M30" s="7">
         <v>403</v>
@@ -6618,13 +7173,13 @@
         <v>446440</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,13 +7194,13 @@
         <v>155417</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="H31" s="7">
         <v>166</v>
@@ -6654,13 +7209,13 @@
         <v>182047</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="M31" s="7">
         <v>312</v>
@@ -6669,13 +7224,13 @@
         <v>337464</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,7 +7251,7 @@
         <v>184</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -6705,13 +7260,13 @@
         <v>12458</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>186</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -6720,13 +7275,13 @@
         <v>22222</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>104</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6800,37 +7355,37 @@
         <v>194</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="H34" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>3053</v>
+        <v>1945</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>508</v>
+        <v>193</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>509</v>
+        <v>339</v>
       </c>
       <c r="M34" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>3053</v>
+        <v>1945</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>508</v>
+        <v>193</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6839,49 +7394,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
+        <v>17</v>
+      </c>
+      <c r="D35" s="7">
+        <v>19902</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="H35" s="7">
+        <v>21</v>
+      </c>
+      <c r="I35" s="7">
+        <v>21793</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="M35" s="7">
         <v>38</v>
       </c>
-      <c r="D35" s="7">
-        <v>42038</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="H35" s="7">
-        <v>48</v>
-      </c>
-      <c r="I35" s="7">
-        <v>51535</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M35" s="7">
-        <v>86</v>
-      </c>
       <c r="N35" s="7">
-        <v>93574</v>
+        <v>41694</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,49 +7445,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="D36" s="7">
-        <v>294792</v>
+        <v>160336</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="H36" s="7">
-        <v>356</v>
+        <v>177</v>
       </c>
       <c r="I36" s="7">
-        <v>379794</v>
+        <v>181541</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="M36" s="7">
-        <v>625</v>
+        <v>326</v>
       </c>
       <c r="N36" s="7">
-        <v>674586</v>
+        <v>341877</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>333</v>
+        <v>166</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,49 +7496,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D37" s="7">
-        <v>209518</v>
+        <v>121555</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>180</v>
+        <v>553</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="H37" s="7">
-        <v>258</v>
+        <v>123</v>
       </c>
       <c r="I37" s="7">
-        <v>274690</v>
+        <v>125376</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>558</v>
       </c>
       <c r="M37" s="7">
-        <v>443</v>
+        <v>231</v>
       </c>
       <c r="N37" s="7">
-        <v>484208</v>
+        <v>246931</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,49 +7547,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D38" s="7">
-        <v>11238</v>
+        <v>7011</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>424</v>
+        <v>562</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>350</v>
+        <v>563</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="H38" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I38" s="7">
-        <v>28907</v>
+        <v>21366</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>54</v>
+        <v>348</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>536</v>
+        <v>566</v>
       </c>
       <c r="M38" s="7">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N38" s="7">
-        <v>40145</v>
+        <v>28377</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>539</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,10 +7598,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>502</v>
+        <v>281</v>
       </c>
       <c r="D39" s="7">
-        <v>557586</v>
+        <v>308804</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -7058,10 +7613,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>690</v>
+        <v>342</v>
       </c>
       <c r="I39" s="7">
-        <v>737980</v>
+        <v>352020</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -7073,10 +7628,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1192</v>
+        <v>623</v>
       </c>
       <c r="N39" s="7">
-        <v>1295566</v>
+        <v>660824</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -7090,55 +7645,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>270</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>49085</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>540</v>
+        <v>194</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>541</v>
+        <v>387</v>
       </c>
       <c r="H40" s="7">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="I40" s="7">
-        <v>46047</v>
+        <v>1109</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>543</v>
+        <v>193</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>388</v>
+        <v>459</v>
       </c>
       <c r="M40" s="7">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>95132</v>
+        <v>1109</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>397</v>
+        <v>569</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>544</v>
+        <v>193</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,49 +7702,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="D41" s="7">
-        <v>326841</v>
+        <v>22136</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="H41" s="7">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="I41" s="7">
-        <v>260167</v>
+        <v>29743</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>549</v>
+        <v>162</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>163</v>
+        <v>574</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>403</v>
+        <v>575</v>
       </c>
       <c r="M41" s="7">
-        <v>549</v>
+        <v>48</v>
       </c>
       <c r="N41" s="7">
-        <v>587007</v>
+        <v>51879</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,49 +7753,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>1680</v>
+        <v>120</v>
       </c>
       <c r="D42" s="7">
-        <v>1780291</v>
+        <v>134456</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>553</v>
+        <v>82</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="H42" s="7">
-        <v>1721</v>
+        <v>179</v>
       </c>
       <c r="I42" s="7">
-        <v>1851828</v>
+        <v>198253</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>37</v>
+        <v>582</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="M42" s="7">
-        <v>3401</v>
+        <v>299</v>
       </c>
       <c r="N42" s="7">
-        <v>3632119</v>
+        <v>332708</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>558</v>
+        <v>480</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>559</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,49 +7804,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>1085</v>
+        <v>77</v>
       </c>
       <c r="D43" s="7">
-        <v>1169364</v>
+        <v>87963</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>378</v>
+        <v>214</v>
       </c>
       <c r="H43" s="7">
-        <v>1190</v>
+        <v>135</v>
       </c>
       <c r="I43" s="7">
-        <v>1290376</v>
+        <v>149314</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="M43" s="7">
-        <v>2275</v>
+        <v>212</v>
       </c>
       <c r="N43" s="7">
-        <v>2459740</v>
+        <v>237277</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,49 +7855,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="D44" s="7">
-        <v>94077</v>
+        <v>4227</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>569</v>
+        <v>196</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
       <c r="H44" s="7">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="I44" s="7">
-        <v>100964</v>
+        <v>7541</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="M44" s="7">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="N44" s="7">
-        <v>195041</v>
+        <v>11768</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>574</v>
+        <v>152</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,63 +7906,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>221</v>
+      </c>
+      <c r="D45" s="7">
+        <v>248782</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>348</v>
+      </c>
+      <c r="I45" s="7">
+        <v>385959</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>569</v>
+      </c>
+      <c r="N45" s="7">
+        <v>634741</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>44</v>
+      </c>
+      <c r="D46" s="7">
+        <v>49085</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H46" s="7">
+        <v>44</v>
+      </c>
+      <c r="I46" s="7">
+        <v>46047</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M46" s="7">
+        <v>88</v>
+      </c>
+      <c r="N46" s="7">
+        <v>95132</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>306</v>
+      </c>
+      <c r="D47" s="7">
+        <v>326841</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="H47" s="7">
+        <v>243</v>
+      </c>
+      <c r="I47" s="7">
+        <v>260167</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="M47" s="7">
+        <v>549</v>
+      </c>
+      <c r="N47" s="7">
+        <v>587007</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1680</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1780291</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1721</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1851828</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="M48" s="7">
+        <v>3401</v>
+      </c>
+      <c r="N48" s="7">
+        <v>3632119</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1085</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1169364</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1190</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1290376</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="M49" s="7">
+        <v>2275</v>
+      </c>
+      <c r="N49" s="7">
+        <v>2459740</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>87</v>
+      </c>
+      <c r="D50" s="7">
+        <v>94077</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="H50" s="7">
+        <v>92</v>
+      </c>
+      <c r="I50" s="7">
+        <v>100964</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="M50" s="7">
+        <v>179</v>
+      </c>
+      <c r="N50" s="7">
+        <v>195041</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3202</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3419658</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3290</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3549382</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6492</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6969040</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>313</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7420,8 +8284,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DD9978-99C9-46C5-B203-EEC67F024909}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEFC6F0-1ED8-4363-98A0-0A0748EA6BA1}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7437,7 +8301,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>576</v>
+        <v>636</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7544,13 +8408,13 @@
         <v>12893</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>577</v>
+        <v>637</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -7559,13 +8423,13 @@
         <v>9343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>578</v>
+        <v>638</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>579</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -7574,13 +8438,13 @@
         <v>22236</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>580</v>
+        <v>639</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>582</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,13 +8459,13 @@
         <v>51765</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>583</v>
+        <v>641</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>585</v>
+        <v>643</v>
       </c>
       <c r="H5" s="7">
         <v>57</v>
@@ -7610,13 +8474,13 @@
         <v>56233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>586</v>
+        <v>644</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>587</v>
+        <v>645</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="M5" s="7">
         <v>105</v>
@@ -7625,13 +8489,13 @@
         <v>107999</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>589</v>
+        <v>647</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +8510,13 @@
         <v>241295</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>591</v>
+        <v>649</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>592</v>
+        <v>650</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>593</v>
+        <v>651</v>
       </c>
       <c r="H6" s="7">
         <v>243</v>
@@ -7661,13 +8525,13 @@
         <v>236472</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>594</v>
+        <v>652</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>596</v>
+        <v>654</v>
       </c>
       <c r="M6" s="7">
         <v>470</v>
@@ -7676,13 +8540,13 @@
         <v>477766</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>597</v>
+        <v>655</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>598</v>
+        <v>656</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>599</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +8561,13 @@
         <v>107923</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>600</v>
+        <v>658</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>601</v>
+        <v>659</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>602</v>
+        <v>660</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -7712,13 +8576,13 @@
         <v>86897</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>603</v>
+        <v>661</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>604</v>
+        <v>662</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>605</v>
+        <v>663</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -7727,13 +8591,13 @@
         <v>194820</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>606</v>
+        <v>664</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>607</v>
+        <v>665</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>608</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +8612,13 @@
         <v>4501</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>609</v>
+        <v>667</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -7763,13 +8627,13 @@
         <v>5725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>610</v>
+        <v>668</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>388</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -7778,13 +8642,13 @@
         <v>10226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>273</v>
+        <v>669</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,13 +8716,13 @@
         <v>14406</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>611</v>
+        <v>670</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>612</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>613</v>
+        <v>671</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -7870,7 +8734,7 @@
         <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>223</v>
@@ -7882,13 +8746,13 @@
         <v>31278</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>614</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>535</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +8767,13 @@
         <v>60752</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>615</v>
+        <v>673</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>616</v>
+        <v>674</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>617</v>
+        <v>675</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -7918,13 +8782,13 @@
         <v>60565</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>618</v>
+        <v>676</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>619</v>
+        <v>677</v>
       </c>
       <c r="M11" s="7">
         <v>119</v>
@@ -7933,13 +8797,13 @@
         <v>121318</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>620</v>
+        <v>678</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>621</v>
+        <v>679</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>622</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +8818,13 @@
         <v>340841</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>623</v>
+        <v>681</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>624</v>
+        <v>682</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>625</v>
+        <v>683</v>
       </c>
       <c r="H12" s="7">
         <v>358</v>
@@ -7969,13 +8833,13 @@
         <v>343814</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>626</v>
+        <v>684</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>627</v>
+        <v>685</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>628</v>
+        <v>686</v>
       </c>
       <c r="M12" s="7">
         <v>687</v>
@@ -7984,13 +8848,13 @@
         <v>684655</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>629</v>
+        <v>687</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>630</v>
+        <v>688</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>631</v>
+        <v>689</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +8869,13 @@
         <v>165809</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>632</v>
+        <v>690</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>633</v>
+        <v>691</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>634</v>
+        <v>692</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -8020,13 +8884,13 @@
         <v>130736</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>635</v>
+        <v>693</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>636</v>
+        <v>694</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>637</v>
+        <v>695</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -8035,13 +8899,13 @@
         <v>296545</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>600</v>
+        <v>658</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>639</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8920,13 @@
         <v>7671</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>542</v>
+        <v>603</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>640</v>
+        <v>698</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -8071,13 +8935,13 @@
         <v>7768</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>641</v>
+        <v>699</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>642</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>643</v>
+        <v>700</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -8086,13 +8950,13 @@
         <v>15440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>644</v>
+        <v>570</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>569</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +9024,13 @@
         <v>8985</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>645</v>
+        <v>701</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>646</v>
+        <v>702</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>647</v>
+        <v>703</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -8175,13 +9039,13 @@
         <v>10199</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>648</v>
+        <v>704</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>649</v>
+        <v>705</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -8190,13 +9054,13 @@
         <v>19184</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,13 +9075,13 @@
         <v>64996</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>650</v>
+        <v>706</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>651</v>
+        <v>707</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>652</v>
+        <v>708</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -8226,13 +9090,13 @@
         <v>55144</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>653</v>
+        <v>709</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>654</v>
+        <v>710</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -8241,13 +9105,13 @@
         <v>120140</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>655</v>
+        <v>711</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>656</v>
+        <v>712</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>657</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +9126,13 @@
         <v>432963</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>658</v>
+        <v>713</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>659</v>
+        <v>714</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>660</v>
+        <v>715</v>
       </c>
       <c r="H18" s="7">
         <v>388</v>
@@ -8277,13 +9141,13 @@
         <v>383233</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>661</v>
+        <v>716</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>662</v>
+        <v>717</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>663</v>
+        <v>718</v>
       </c>
       <c r="M18" s="7">
         <v>798</v>
@@ -8292,13 +9156,13 @@
         <v>816196</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>664</v>
+        <v>719</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>665</v>
+        <v>720</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>666</v>
+        <v>721</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +9177,13 @@
         <v>151582</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>668</v>
+        <v>723</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>669</v>
+        <v>724</v>
       </c>
       <c r="H19" s="7">
         <v>201</v>
@@ -8328,10 +9192,10 @@
         <v>201668</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>670</v>
+        <v>725</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>97</v>
@@ -8343,13 +9207,13 @@
         <v>353250</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>671</v>
+        <v>726</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>672</v>
+        <v>727</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>673</v>
+        <v>728</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,10 +9228,10 @@
         <v>6956</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>729</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>507</v>
+        <v>730</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>51</v>
@@ -8379,13 +9243,13 @@
         <v>10031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>674</v>
+        <v>731</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>646</v>
+        <v>702</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>675</v>
+        <v>732</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -8394,13 +9258,13 @@
         <v>16987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>676</v>
+        <v>597</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8468,13 +9332,13 @@
         <v>6957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>677</v>
+        <v>733</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>678</v>
+        <v>734</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -8483,13 +9347,13 @@
         <v>8893</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>679</v>
+        <v>735</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>680</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -8498,10 +9362,10 @@
         <v>15851</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>681</v>
+        <v>266</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>642</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>192</v>
@@ -8519,13 +9383,13 @@
         <v>64926</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>682</v>
+        <v>736</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>225</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -8534,13 +9398,13 @@
         <v>49331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>683</v>
+        <v>737</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>684</v>
+        <v>572</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>685</v>
+        <v>738</v>
       </c>
       <c r="M23" s="7">
         <v>99</v>
@@ -8549,13 +9413,13 @@
         <v>114256</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>686</v>
+        <v>739</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>687</v>
+        <v>740</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,13 +9434,13 @@
         <v>388532</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>688</v>
+        <v>741</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>689</v>
+        <v>742</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>690</v>
+        <v>743</v>
       </c>
       <c r="H24" s="7">
         <v>353</v>
@@ -8585,13 +9449,13 @@
         <v>374993</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>691</v>
+        <v>744</v>
       </c>
       <c r="M24" s="7">
         <v>711</v>
@@ -8600,13 +9464,13 @@
         <v>763525</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>692</v>
+        <v>745</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>693</v>
+        <v>746</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>694</v>
+        <v>747</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +9485,13 @@
         <v>175316</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>695</v>
+        <v>748</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>696</v>
+        <v>749</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>697</v>
+        <v>750</v>
       </c>
       <c r="H25" s="7">
         <v>182</v>
@@ -8636,13 +9500,13 @@
         <v>198571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>698</v>
+        <v>751</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>699</v>
+        <v>752</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>700</v>
+        <v>753</v>
       </c>
       <c r="M25" s="7">
         <v>336</v>
@@ -8654,10 +9518,10 @@
         <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>701</v>
+        <v>754</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>702</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8675,10 +9539,10 @@
         <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>703</v>
+        <v>536</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>704</v>
+        <v>756</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -8687,13 +9551,13 @@
         <v>16176</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>705</v>
+        <v>757</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>706</v>
+        <v>758</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -8702,13 +9566,13 @@
         <v>25405</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>707</v>
+        <v>759</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>681</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>708</v>
+        <v>760</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8776,7 +9640,7 @@
         <v>1175</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>709</v>
+        <v>761</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>193</v>
@@ -8791,13 +9655,13 @@
         <v>6658</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>677</v>
+        <v>733</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>580</v>
+        <v>639</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -8806,13 +9670,13 @@
         <v>7834</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>710</v>
+        <v>762</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>239</v>
+        <v>763</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>711</v>
+        <v>764</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,13 +9691,13 @@
         <v>42010</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>712</v>
+        <v>765</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>713</v>
+        <v>766</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>714</v>
+        <v>767</v>
       </c>
       <c r="H29" s="7">
         <v>37</v>
@@ -8842,13 +9706,13 @@
         <v>43533</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>715</v>
+        <v>768</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>716</v>
+        <v>769</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>717</v>
+        <v>770</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -8857,13 +9721,13 @@
         <v>85543</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>519</v>
+        <v>771</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>718</v>
+        <v>772</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,13 +9742,13 @@
         <v>288646</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>719</v>
+        <v>773</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>720</v>
+        <v>774</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>721</v>
+        <v>775</v>
       </c>
       <c r="H30" s="7">
         <v>264</v>
@@ -8893,13 +9757,13 @@
         <v>303520</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>722</v>
+        <v>776</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>723</v>
+        <v>777</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>724</v>
+        <v>778</v>
       </c>
       <c r="M30" s="7">
         <v>525</v>
@@ -8908,13 +9772,13 @@
         <v>592166</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>725</v>
+        <v>779</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>726</v>
+        <v>780</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>727</v>
+        <v>781</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8932,10 +9796,10 @@
         <v>179</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>728</v>
+        <v>782</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>729</v>
+        <v>783</v>
       </c>
       <c r="H31" s="7">
         <v>117</v>
@@ -8944,13 +9808,13 @@
         <v>133198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>730</v>
+        <v>784</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>731</v>
+        <v>785</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>732</v>
+        <v>786</v>
       </c>
       <c r="M31" s="7">
         <v>237</v>
@@ -8959,13 +9823,13 @@
         <v>272755</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>733</v>
+        <v>787</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>734</v>
+        <v>788</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,10 +9844,10 @@
         <v>6530</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>677</v>
+        <v>733</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>17</v>
@@ -8995,13 +9859,13 @@
         <v>9940</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>735</v>
+        <v>789</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>736</v>
+        <v>790</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -9010,13 +9874,13 @@
         <v>16469</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>737</v>
+        <v>791</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>580</v>
+        <v>639</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9078,49 +9942,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>9340</v>
+        <v>2839</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>738</v>
+        <v>792</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>739</v>
+        <v>453</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>2470</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>740</v>
+        <v>193</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>741</v>
+        <v>460</v>
       </c>
       <c r="M34" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>11810</v>
+        <v>2839</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>742</v>
+        <v>793</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>674</v>
+        <v>794</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9129,49 +9993,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D35" s="7">
-        <v>43832</v>
+        <v>26223</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>743</v>
+        <v>674</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>247</v>
+        <v>795</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>744</v>
+        <v>796</v>
       </c>
       <c r="H35" s="7">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I35" s="7">
-        <v>40553</v>
+        <v>25387</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>745</v>
+        <v>797</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>392</v>
+        <v>798</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>746</v>
+        <v>799</v>
       </c>
       <c r="M35" s="7">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="N35" s="7">
-        <v>84385</v>
+        <v>51609</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>747</v>
+        <v>315</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>164</v>
+        <v>800</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>512</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9180,49 +10044,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>388</v>
+        <v>181</v>
       </c>
       <c r="D36" s="7">
-        <v>362575</v>
+        <v>186813</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>748</v>
+        <v>802</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>749</v>
+        <v>803</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>750</v>
+        <v>804</v>
       </c>
       <c r="H36" s="7">
-        <v>405</v>
+        <v>212</v>
       </c>
       <c r="I36" s="7">
-        <v>479653</v>
+        <v>223182</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>625</v>
+        <v>805</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>751</v>
+        <v>806</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>752</v>
+        <v>807</v>
       </c>
       <c r="M36" s="7">
-        <v>793</v>
+        <v>393</v>
       </c>
       <c r="N36" s="7">
-        <v>842228</v>
+        <v>409995</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>753</v>
+        <v>808</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>754</v>
+        <v>809</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>755</v>
+        <v>810</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9231,49 +10095,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="D37" s="7">
-        <v>168455</v>
+        <v>112938</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>756</v>
+        <v>627</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>757</v>
+        <v>811</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>758</v>
+        <v>812</v>
       </c>
       <c r="H37" s="7">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="I37" s="7">
-        <v>242014</v>
+        <v>122458</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>759</v>
+        <v>813</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>760</v>
+        <v>814</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>761</v>
+        <v>815</v>
       </c>
       <c r="M37" s="7">
-        <v>376</v>
+        <v>222</v>
       </c>
       <c r="N37" s="7">
-        <v>410469</v>
+        <v>235396</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>762</v>
+        <v>816</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>763</v>
+        <v>817</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>764</v>
+        <v>818</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9282,49 +10146,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>5245</v>
+        <v>3636</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>765</v>
+        <v>819</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>766</v>
+        <v>537</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>538</v>
+        <v>820</v>
       </c>
       <c r="H38" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I38" s="7">
-        <v>13241</v>
+        <v>6736</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>581</v>
+        <v>422</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>738</v>
+        <v>466</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>307</v>
+        <v>821</v>
       </c>
       <c r="M38" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N38" s="7">
-        <v>18485</v>
+        <v>10372</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>645</v>
+        <v>757</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>768</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9333,10 +10197,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>625</v>
+        <v>323</v>
       </c>
       <c r="D39" s="7">
-        <v>589447</v>
+        <v>332449</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -9348,10 +10212,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I39" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -9363,10 +10227,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1280</v>
+        <v>677</v>
       </c>
       <c r="N39" s="7">
-        <v>1367378</v>
+        <v>710211</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -9380,55 +10244,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>270</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D40" s="7">
-        <v>53757</v>
+        <v>6502</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>104</v>
+        <v>822</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>465</v>
+        <v>52</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>192</v>
+        <v>823</v>
       </c>
       <c r="H40" s="7">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I40" s="7">
-        <v>54436</v>
+        <v>2470</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>648</v>
+        <v>156</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>769</v>
+        <v>193</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>735</v>
+        <v>146</v>
       </c>
       <c r="M40" s="7">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="N40" s="7">
-        <v>108193</v>
+        <v>8972</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>433</v>
+        <v>156</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9437,49 +10301,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="D41" s="7">
-        <v>328281</v>
+        <v>17609</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>770</v>
+        <v>510</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>771</v>
+        <v>241</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>438</v>
+        <v>824</v>
       </c>
       <c r="H41" s="7">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I41" s="7">
-        <v>305359</v>
+        <v>15167</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>772</v>
+        <v>348</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>162</v>
+        <v>825</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>773</v>
+        <v>826</v>
       </c>
       <c r="M41" s="7">
-        <v>597</v>
+        <v>33</v>
       </c>
       <c r="N41" s="7">
-        <v>633640</v>
+        <v>32776</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>774</v>
+        <v>827</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>775</v>
+        <v>828</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>776</v>
+        <v>829</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9488,49 +10352,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>1973</v>
+        <v>207</v>
       </c>
       <c r="D42" s="7">
-        <v>2054853</v>
+        <v>175762</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>777</v>
+        <v>830</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>778</v>
+        <v>831</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>779</v>
+        <v>832</v>
       </c>
       <c r="H42" s="7">
-        <v>2011</v>
+        <v>193</v>
       </c>
       <c r="I42" s="7">
-        <v>2121685</v>
+        <v>256471</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>780</v>
+        <v>833</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>781</v>
+        <v>834</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>782</v>
+        <v>835</v>
       </c>
       <c r="M42" s="7">
-        <v>3984</v>
+        <v>400</v>
       </c>
       <c r="N42" s="7">
-        <v>4176538</v>
+        <v>432233</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>783</v>
+        <v>836</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>784</v>
+        <v>837</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>785</v>
+        <v>838</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9539,49 +10403,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>858</v>
+        <v>65</v>
       </c>
       <c r="D43" s="7">
-        <v>908642</v>
+        <v>55517</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>786</v>
+        <v>839</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>787</v>
+        <v>840</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>92</v>
+        <v>841</v>
       </c>
       <c r="H43" s="7">
-        <v>918</v>
+        <v>89</v>
       </c>
       <c r="I43" s="7">
-        <v>993085</v>
+        <v>119556</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>788</v>
+        <v>842</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>789</v>
+        <v>843</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>790</v>
+        <v>844</v>
       </c>
       <c r="M43" s="7">
-        <v>1776</v>
+        <v>154</v>
       </c>
       <c r="N43" s="7">
-        <v>1901728</v>
+        <v>175073</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>791</v>
+        <v>845</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>792</v>
+        <v>846</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>793</v>
+        <v>847</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9590,49 +10454,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D44" s="7">
-        <v>40131</v>
+        <v>1608</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>794</v>
+        <v>233</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>738</v>
+        <v>193</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>269</v>
+        <v>503</v>
       </c>
       <c r="H44" s="7">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="I44" s="7">
-        <v>62881</v>
+        <v>6505</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>393</v>
+        <v>848</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>397</v>
+        <v>233</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>468</v>
+        <v>204</v>
       </c>
       <c r="M44" s="7">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="N44" s="7">
-        <v>103012</v>
+        <v>8113</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>795</v>
+        <v>266</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>796</v>
+        <v>849</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>18</v>
+        <v>850</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9641,63 +10505,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>302</v>
+      </c>
+      <c r="D45" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>301</v>
+      </c>
+      <c r="I45" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>603</v>
+      </c>
+      <c r="N45" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>51</v>
+      </c>
+      <c r="D46" s="7">
+        <v>53757</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H46" s="7">
+        <v>52</v>
+      </c>
+      <c r="I46" s="7">
+        <v>54436</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="M46" s="7">
+        <v>103</v>
+      </c>
+      <c r="N46" s="7">
+        <v>108193</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>306</v>
+      </c>
+      <c r="D47" s="7">
+        <v>328281</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H47" s="7">
+        <v>291</v>
+      </c>
+      <c r="I47" s="7">
+        <v>305359</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="M47" s="7">
+        <v>597</v>
+      </c>
+      <c r="N47" s="7">
+        <v>633640</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1973</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2054853</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="H48" s="7">
+        <v>2011</v>
+      </c>
+      <c r="I48" s="7">
+        <v>2121685</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="M48" s="7">
+        <v>3984</v>
+      </c>
+      <c r="N48" s="7">
+        <v>4176538</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>858</v>
+      </c>
+      <c r="D49" s="7">
+        <v>908642</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" s="7">
+        <v>918</v>
+      </c>
+      <c r="I49" s="7">
+        <v>993085</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1776</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1901728</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>35</v>
+      </c>
+      <c r="D50" s="7">
+        <v>40131</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="H50" s="7">
+        <v>59</v>
+      </c>
+      <c r="I50" s="7">
+        <v>62881</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="M50" s="7">
+        <v>94</v>
+      </c>
+      <c r="N50" s="7">
+        <v>103012</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3223</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3385665</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3331</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3537446</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6554</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6923111</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>313</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
